--- a/Research Data.xlsx
+++ b/Research Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yalin\Dropbox\05 MBA in Finance &amp; Sustainability\08. Dissertation\05. Chapters\02. Chapter 3 (Methodology)\01. Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aandrade22\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6584526E-013B-42F4-A5D5-21F1C374E683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E25F92-294F-4EE9-8F7B-99D3570D4C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$AC$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="152">
   <si>
     <t>Development relevance</t>
   </si>
@@ -666,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -705,12 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -718,9 +712,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1033,22 +1027,22 @@
   <dimension ref="A1:AI105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="A1:AI105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" hidden="1" customWidth="1"/>
-    <col min="5" max="29" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" hidden="1" customWidth="1"/>
+    <col min="5" max="29" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1136,33 +1130,33 @@
       <c r="AC1" t="s">
         <v>98</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1244,14 +1238,14 @@
         <v>16.825236126593762</v>
       </c>
     </row>
-    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1333,103 +1327,103 @@
         <v>19905.994836590748</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4">
         <v>7349.7034354640464</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4">
         <v>7939.2978635383388</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4">
         <v>7932.705910379821</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4">
         <v>7450.6587975736511</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4">
         <v>7359.4484982222721</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4">
         <v>7588.7612340068436</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4">
         <v>8174.141608930373</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4">
         <v>8323.8266988148425</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4">
         <v>7169.3664774678318</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4">
         <v>7697.2706840567625</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4">
         <v>8795.2605964187151</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4">
         <v>8337.3227236609637</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4">
         <v>8380.9592955137723</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4">
         <v>9321.803873716759</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4">
         <v>10935.016589983656</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4">
         <v>13462.763048926527</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4">
         <v>14848.60205803083</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4">
         <v>15756.193622652971</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4">
         <v>18944.857349436297</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4">
         <v>15064.631280689628</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4">
         <v>17958.947831333062</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4">
         <v>22441.571143891022</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4">
         <v>24069.203314813149</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4">
         <v>23945.512310689199</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4">
         <v>23862.801186009579</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1511,17 +1505,17 @@
         <v>6645.9602078892685</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="13">
@@ -1625,17 +1619,17 @@
         <v>51.222095925771491</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="13">
@@ -1739,287 +1733,287 @@
         <v>23.996068393716314</v>
       </c>
     </row>
-    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>4.2280990000000003</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>4.210477</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>4.1929020000000001</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>4.1689040000000004</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>4.1446170000000002</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>4.1247949999999998</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>4.0951639999999996</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>4.0603850000000001</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <v>4.0339689999999999</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <v>4.0170149999999998</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <v>4.009868</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="20">
         <v>3.992556</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="20">
         <v>3.999587</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="20">
         <v>4.003101</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <v>3.9965440000000001</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="20">
         <v>3.982669</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="20">
         <v>3.9721229999999998</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="20">
         <v>3.9581019999999998</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="20">
         <v>3.9496479999999998</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="20">
         <v>3.9448859999999999</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="20">
         <v>3.9339520000000001</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="Z8" s="20">
         <v>3.930469</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AA8" s="20">
         <v>3.9367740000000002</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="20">
         <v>3.9343159999999999</v>
       </c>
-      <c r="AC8" s="21">
+      <c r="AC8" s="20">
         <v>3.9361709999999999</v>
       </c>
       <c r="AD8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>2.359083</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>2.39737</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>2.409516</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="20">
         <v>2.4674160000000001</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>2.537874</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>2.6186449999999999</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>2.7146919999999999</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <v>2.809294</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <v>2.8692639999999998</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <v>2.9107609999999999</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <v>2.942841</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <v>2.981106</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="20">
         <v>2.992451</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="20">
         <v>3.019549</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="20">
         <v>3.0666479999999998</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="20">
         <v>3.0943200000000002</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="20">
         <v>3.0920209999999999</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="20">
         <v>3.110805</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="20">
         <v>3.1335839999999999</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="20">
         <v>3.1655139999999999</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="20">
         <v>3.1997490000000002</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="Z9" s="20">
         <v>3.2058800000000001</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AA9" s="20">
         <v>3.186728</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="20">
         <v>3.199735</v>
       </c>
-      <c r="AC9" s="21">
+      <c r="AC9" s="20">
         <v>3.1778900000000001</v>
       </c>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10">
         <v>3624.2029325895046</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10">
         <v>4054.2807144543535</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10">
         <v>4451.4333081616887</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10">
         <v>4474.7756431933476</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10">
         <v>4574.8538398852579</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10">
         <v>4473.878382371151</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10">
         <v>4660.33802706607</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10">
         <v>4326.5368088887071</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10">
         <v>4490.4262188742214</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10">
         <v>4454.6215407579184</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10">
         <v>4541.4725402937429</v>
       </c>
-      <c r="P10" s="22">
+      <c r="P10">
         <v>4548.1106998034811</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10">
         <v>4917.5228850286312</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10">
         <v>4862.626926781556</v>
       </c>
-      <c r="S10" s="22">
+      <c r="S10">
         <v>5063.1187608318014</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10">
         <v>5022.9662749403178</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10">
         <v>5349.8901424464602</v>
       </c>
-      <c r="V10" s="22">
+      <c r="V10">
         <v>5315.1866123981199</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10">
         <v>5705.367423745286</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10">
         <v>5850.4515040603619</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y10">
         <v>6306.5936953676173</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10">
         <v>5907.6882001542572</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AA10">
         <v>6500.2831947771074</v>
       </c>
-      <c r="AB10" s="22">
+      <c r="AB10">
         <v>6104.381107242506</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="AC10">
         <v>6645.9602078892685</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2101,14 +2095,14 @@
         <v>22.749990429563717</v>
       </c>
     </row>
-    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2190,103 +2184,103 @@
         <v>30282.47101409794</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13">
         <v>11002.065615430409</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13">
         <v>8219.4801815209939</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13">
         <v>12253.579443787659</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13">
         <v>14477.951066116655</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13">
         <v>15141.303388314855</v>
       </c>
-      <c r="J13" s="29">
+      <c r="J13">
         <v>16424.97540906585</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13">
         <v>18488.839611130497</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13">
         <v>17230.055104285828</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13">
         <v>14258.355821183532</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13">
         <v>16044.493793501344</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13">
         <v>19493.888049091453</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13">
         <v>17517.706145600434</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13">
         <v>18626.774923182977</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13">
         <v>22781.082819458043</v>
       </c>
-      <c r="S13" s="29">
+      <c r="S13">
         <v>27601.400059072166</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13">
         <v>36144.994945871644</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13">
         <v>42970.696448825845</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13">
         <v>45729.799339983954</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13">
         <v>55595.484312959168</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13">
         <v>37906.205185174833</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13">
         <v>39212.579413771149</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13">
         <v>49010.310500129912</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13">
         <v>51271.06775693391</v>
       </c>
-      <c r="AB13" s="29">
+      <c r="AB13">
         <v>47762.79670320922</v>
       </c>
-      <c r="AC13" s="29">
+      <c r="AC13">
         <v>43239.835177917113</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2368,14 +2362,14 @@
         <v>9006.5049723733409</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2457,14 +2451,14 @@
         <v>95.987731933593807</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2473,9 +2467,6 @@
       <c r="E16">
         <v>65.8466796875</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
       <c r="G16">
         <v>51.502628326416001</v>
       </c>
@@ -2506,9 +2497,6 @@
       <c r="P16">
         <v>88.376350402832003</v>
       </c>
-      <c r="Q16" t="s">
-        <v>33</v>
-      </c>
       <c r="R16">
         <v>97.504920959472699</v>
       </c>
@@ -2546,192 +2534,192 @@
         <v>90.034919738769503</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17">
         <v>5438.5284709045945</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17">
         <v>2009.4079880552442</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17">
         <v>5444.2727008520742</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17">
         <v>7437.8600001814175</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17">
         <v>8792.1413973259496</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17">
         <v>8936.5511091563549</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17">
         <v>8540.5015387614058</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17">
         <v>8342.3127754804518</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17">
         <v>9226.970054035517</v>
       </c>
-      <c r="N17" s="22">
+      <c r="N17">
         <v>9597.3595777625433</v>
       </c>
-      <c r="O17" s="22">
+      <c r="O17">
         <v>9673.3248884568256</v>
       </c>
-      <c r="P17" s="22">
+      <c r="P17">
         <v>10029.643907587286</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17">
         <v>10033.676962181617</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17">
         <v>10421.287876408633</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17">
         <v>10851.49207260245</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17">
         <v>11757.025466996331</v>
       </c>
-      <c r="U17" s="22">
+      <c r="U17">
         <v>10858.526391327105</v>
       </c>
-      <c r="V17" s="22">
+      <c r="V17">
         <v>10477.533031563738</v>
       </c>
-      <c r="W17" s="22">
+      <c r="W17">
         <v>10831.523276736843</v>
       </c>
-      <c r="X17" s="22">
+      <c r="X17">
         <v>11235.785087013288</v>
       </c>
-      <c r="Y17" s="22">
+      <c r="Y17">
         <v>10898.253558183244</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17">
         <v>10299.968986823376</v>
       </c>
-      <c r="AA17" s="22">
+      <c r="AA17">
         <v>10956.105804906112</v>
       </c>
-      <c r="AB17" s="22">
+      <c r="AB17">
         <v>9580.1265755441218</v>
       </c>
-      <c r="AC17" s="22">
+      <c r="AC17">
         <v>9006.5049723733409</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18">
         <v>2338.1501160416815</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18">
         <v>3081.4157125391848</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18">
         <v>2749.048849325543</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18">
         <v>2863.718634584829</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18">
         <v>2830.5205806882491</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18">
         <v>2807.8987532402498</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18">
         <v>2837.7485001977416</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18">
         <v>3003.6484876121535</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18">
         <v>2979.7212560977696</v>
       </c>
-      <c r="N18" s="22">
+      <c r="N18">
         <v>3044.3742973276831</v>
       </c>
-      <c r="O18" s="22">
+      <c r="O18">
         <v>3228.7155012705543</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18">
         <v>3233.1860697120796</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18">
         <v>3358.6365620081715</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18">
         <v>3537.3046553709491</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18">
         <v>3567.4513084000478</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18">
         <v>3938.2281750260017</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18">
         <v>6025.9828660624707</v>
       </c>
-      <c r="V18" s="22">
+      <c r="V18">
         <v>6791.8847142802324</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18">
         <v>5904.6754692896484</v>
       </c>
-      <c r="X18" s="22">
+      <c r="X18">
         <v>5863.3939034015102</v>
       </c>
-      <c r="Y18" s="22">
+      <c r="Y18">
         <v>6495.1400354070256</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18">
         <v>6864.5997499119085</v>
       </c>
-      <c r="AA18" s="22">
+      <c r="AA18">
         <v>6695.7443179745096</v>
       </c>
-      <c r="AB18" s="22">
+      <c r="AB18">
         <v>6402.0038357944604</v>
       </c>
-      <c r="AC18" s="22">
+      <c r="AC18">
         <v>6067.7183634814046</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2813,14 +2801,14 @@
         <v>16.558313527136008</v>
       </c>
     </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" t="s">
         <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2902,103 +2890,103 @@
         <v>18694.310951892352</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21">
         <v>6475.4170704596318</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21">
         <v>5984.3606170438161</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21">
         <v>6272.4694368476812</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21">
         <v>6029.8763880612632</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21">
         <v>6054.7438840015502</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21">
         <v>6352.8230585353285</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21">
         <v>6913.1464620588713</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21">
         <v>7052.6967704541576</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21">
         <v>6139.732825205966</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21">
         <v>6742.8246029806523</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21">
         <v>8321.3938665155711</v>
       </c>
-      <c r="P21" s="29">
+      <c r="P21">
         <v>8191.5128316246828</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21">
         <v>8380.0389517872736</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21">
         <v>8896.9025302096306</v>
       </c>
-      <c r="S21" s="29">
+      <c r="S21">
         <v>10030.444426206544</v>
       </c>
-      <c r="T21" s="29">
+      <c r="T21">
         <v>12357.701391187333</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21">
         <v>14533.72942324941</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21">
         <v>16151.275839059044</v>
       </c>
-      <c r="W21" s="29">
+      <c r="W21">
         <v>22974.277350431879</v>
       </c>
-      <c r="X21" s="29">
+      <c r="X21">
         <v>17937.979567685899</v>
       </c>
-      <c r="Y21" s="29">
+      <c r="Y21">
         <v>22552.19900712333</v>
       </c>
-      <c r="Z21" s="29">
+      <c r="Z21">
         <v>24166.096305362436</v>
       </c>
-      <c r="AA21" s="29">
+      <c r="AA21">
         <v>24722.638824587379</v>
       </c>
-      <c r="AB21" s="29">
+      <c r="AB21">
         <v>23563.940599222849</v>
       </c>
-      <c r="AC21" s="29">
+      <c r="AC21">
         <v>23121.206376855938</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3080,14 +3068,14 @@
         <v>6067.7183634814046</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3135,9 +3123,7 @@
       <c r="R23">
         <v>96.498199462890597</v>
       </c>
-      <c r="S23" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="S23" s="13"/>
       <c r="T23">
         <v>96.953971862792997</v>
       </c>
@@ -3153,9 +3139,7 @@
       <c r="X23">
         <v>100.96978759765599</v>
       </c>
-      <c r="Y23" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="Y23" s="13"/>
       <c r="Z23">
         <v>111.14031219482401</v>
       </c>
@@ -3169,14 +3153,14 @@
         <v>105.67872619628901</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3224,9 +3208,7 @@
       <c r="R24">
         <v>83.630607604980497</v>
       </c>
-      <c r="S24" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="S24" s="13"/>
       <c r="T24">
         <v>87.419120788574205</v>
       </c>
@@ -3242,9 +3224,7 @@
       <c r="X24">
         <v>98.985130310058594</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="Y24" s="13"/>
       <c r="Z24">
         <v>114.451622009277</v>
       </c>
@@ -3254,107 +3234,104 @@
       <c r="AB24">
         <v>109.40386962890599</v>
       </c>
-      <c r="AC24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25">
         <v>10116.938336122825</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25">
         <v>9624.0953279231999</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25">
         <v>10224.311504680145</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25">
         <v>10413.293130343091</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25">
         <v>10704.999882006696</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25">
         <v>10492.110080367544</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25">
         <v>10160.015867095688</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25">
         <v>11104.040034138114</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25">
         <v>11322.236662879712</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25">
         <v>10899.682575458763</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25">
         <v>11199.608682085118</v>
       </c>
-      <c r="P25" s="22">
+      <c r="P25">
         <v>11212.397827066361</v>
       </c>
-      <c r="Q25" s="22">
+      <c r="Q25">
         <v>11345.210096161556</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25">
         <v>11573.262525441498</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25">
         <v>10847.863881619915</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25">
         <v>11510.318531223909</v>
       </c>
-      <c r="U25" s="22">
+      <c r="U25">
         <v>11454.060378112445</v>
       </c>
-      <c r="V25" s="22">
+      <c r="V25">
         <v>11184.114472212292</v>
       </c>
-      <c r="W25" s="22">
+      <c r="W25">
         <v>11362.069198436879</v>
       </c>
-      <c r="X25" s="22">
+      <c r="X25">
         <v>10388.482627116129</v>
       </c>
-      <c r="Y25" s="22">
+      <c r="Y25">
         <v>10436.771049194782</v>
       </c>
-      <c r="Z25" s="22">
+      <c r="Z25">
         <v>10453.083426217971</v>
       </c>
-      <c r="AA25" s="22">
+      <c r="AA25">
         <v>10251.069645100695</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AB25">
         <v>10860.468600025522</v>
       </c>
-      <c r="AC25" s="22">
+      <c r="AC25">
         <v>10798.122846329972</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3436,14 +3413,14 @@
         <v>23.096571364940576</v>
       </c>
     </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3525,103 +3502,103 @@
         <v>23107.956592584389</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28">
         <v>8174.7972317208778</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28">
         <v>8621.7670484676746</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28">
         <v>8568.6580514495545</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28">
         <v>9063.5653849584032</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28">
         <v>9384.7718809258895</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28">
         <v>9543.389368429449</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28">
         <v>9643.3086942995615</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28">
         <v>9728.4463230541369</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28">
         <v>9195.4256097463731</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28">
         <v>9566.0954936990802</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28">
         <v>12738.774118157506</v>
       </c>
-      <c r="P28" s="29">
+      <c r="P28">
         <v>12291.832613053541</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28">
         <v>12819.995935313946</v>
       </c>
-      <c r="R28" s="29">
+      <c r="R28">
         <v>14230.296752980039</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28">
         <v>15777.963640895607</v>
       </c>
-      <c r="T28" s="29">
+      <c r="T28">
         <v>17705.235163894973</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28">
         <v>19057.79890471376</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28">
         <v>20883.548031199425</v>
       </c>
-      <c r="W28" s="29">
+      <c r="W28">
         <v>23155.821449155035</v>
       </c>
-      <c r="X28" s="29">
+      <c r="X28">
         <v>19448.183255378877</v>
       </c>
-      <c r="Y28" s="29">
+      <c r="Y28">
         <v>21186.814329227858</v>
       </c>
-      <c r="Z28" s="29">
+      <c r="Z28">
         <v>23741.557462670153</v>
       </c>
-      <c r="AA28" s="29">
+      <c r="AA28">
         <v>25102.726348526987</v>
       </c>
-      <c r="AB28" s="29">
+      <c r="AB28">
         <v>25790.730312138236</v>
       </c>
-      <c r="AC28" s="29">
+      <c r="AC28">
         <v>25464.760097714992</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" t="s">
         <v>96</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3703,14 +3680,14 @@
         <v>10798.122846329972</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3767,18 +3744,10 @@
       <c r="U30">
         <v>101.59088134765599</v>
       </c>
-      <c r="V30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="X30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
       <c r="Z30">
         <v>96.224967956542997</v>
       </c>
@@ -3792,14 +3761,14 @@
         <v>105.241493225098</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3856,9 +3825,7 @@
       <c r="U31">
         <v>83.678749084472699</v>
       </c>
-      <c r="V31" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="V31" s="13"/>
       <c r="W31">
         <v>88.528388977050795</v>
       </c>
@@ -3881,103 +3848,103 @@
         <v>104.19476318359401</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32">
         <v>14776.657044206711</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32">
         <v>15820.49394724044</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32">
         <v>16022.739569652</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32">
         <v>16120.991850481749</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32">
         <v>15708.122704385809</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32">
         <v>15819.141852686589</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32">
         <v>16337.335739185475</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32">
         <v>18479.284986496328</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32">
         <v>18368.427031464878</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32">
         <v>18454.00471545829</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32">
         <v>16906.15029019858</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32">
         <v>17777.159558122716</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32">
         <v>19140.337864175683</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32">
         <v>18879.894459102903</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32">
         <v>21420.628503630727</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32">
         <v>19635.424349895722</v>
       </c>
-      <c r="U32" s="22">
+      <c r="U32">
         <v>19300.107382814807</v>
       </c>
-      <c r="V32" s="22">
+      <c r="V32">
         <v>17969.106894835833</v>
       </c>
-      <c r="W32" s="22">
+      <c r="W32">
         <v>15748.64655464291</v>
       </c>
-      <c r="X32" s="22">
+      <c r="X32">
         <v>15049.497166320762</v>
       </c>
-      <c r="Y32" s="22">
+      <c r="Y32">
         <v>16131.581251050478</v>
       </c>
-      <c r="Z32" s="22">
+      <c r="Z32">
         <v>17344.592613449611</v>
       </c>
-      <c r="AA32" s="22">
+      <c r="AA32">
         <v>19987.584353977101</v>
       </c>
-      <c r="AB32" s="22">
+      <c r="AB32">
         <v>19819.982893646331</v>
       </c>
-      <c r="AC32" s="22">
+      <c r="AC32">
         <v>19903.475105725312</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -4059,14 +4026,14 @@
         <v>37.105034398827712</v>
       </c>
     </row>
-    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -4128,77 +4095,77 @@
         <v>69723.727374803639</v>
       </c>
     </row>
-    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="16">
-        <f>(E69*1000000/E60)*0.27461*1.34</f>
+        <f t="shared" ref="E35:S35" si="3">(E69*1000000/E60)*0.27461*1.34</f>
         <v>25639.070600781124</v>
       </c>
       <c r="F35" s="16">
-        <f>(F69*1000000/F60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>24560.524141375641</v>
       </c>
       <c r="G35" s="16">
-        <f>(G69*1000000/G60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>26622.346200346714</v>
       </c>
       <c r="H35" s="16">
-        <f>(H69*1000000/H60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>25476.121376591687</v>
       </c>
       <c r="I35" s="16">
-        <f>(I69*1000000/I60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>25047.125210961833</v>
       </c>
       <c r="J35" s="16">
-        <f>(J69*1000000/J60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>25718.908145275109</v>
       </c>
       <c r="K35" s="16">
-        <f>(K69*1000000/K60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>26093.846748604199</v>
       </c>
       <c r="L35" s="16">
-        <f>(L69*1000000/L60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>32436.809049911826</v>
       </c>
       <c r="M35" s="16">
-        <f>(M69*1000000/M60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>34332.278689562947</v>
       </c>
       <c r="N35" s="16">
-        <f>(N69*1000000/N60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>33986.04903554856</v>
       </c>
       <c r="O35" s="16">
-        <f>(O69*1000000/O60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>35197.110061197927</v>
       </c>
       <c r="P35" s="16">
-        <f>(P69*1000000/P60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>34606.076057221908</v>
       </c>
       <c r="Q35" s="16">
-        <f>(Q69*1000000/Q60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>35288.755381625553</v>
       </c>
       <c r="R35" s="16">
-        <f>(R69*1000000/R60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>34796.176947196152</v>
       </c>
       <c r="S35" s="16">
-        <f>(S69*1000000/S60)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>40453.99104767316</v>
       </c>
       <c r="T35" s="16">
@@ -4214,131 +4181,131 @@
         <v>51504.714482101932</v>
       </c>
       <c r="W35" s="16">
-        <f t="shared" ref="W35:AC35" si="3">(W74*1000000/W60)*0.27461*1.25</f>
+        <f t="shared" ref="W35:AC35" si="4">(W74*1000000/W60)*0.27461*1.25</f>
         <v>51690.551466235353</v>
       </c>
       <c r="X35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51905.248827218231</v>
       </c>
       <c r="Y35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56939.573470502553</v>
       </c>
       <c r="Z35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61119.857977708321</v>
       </c>
       <c r="AA35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61359.842561107442</v>
       </c>
       <c r="AB35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61067.136051517533</v>
       </c>
       <c r="AC35" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59581.360243896386</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36">
         <v>16664.83143278864</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36">
         <v>15079.359462319728</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36">
         <v>16223.780076335705</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36">
         <v>14724.25917534972</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36">
         <v>14728.782022219188</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36">
         <v>15797.69103905589</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36">
         <v>17116.83255952195</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36">
         <v>20519.409353557567</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36">
         <v>17651.54558022249</v>
       </c>
-      <c r="N36" s="29">
+      <c r="N36">
         <v>20207.225588913567</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36">
         <v>27494.771332018619</v>
       </c>
-      <c r="P36" s="29">
+      <c r="P36">
         <v>25836.270792673782</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="Q36">
         <v>27151.032498866021</v>
       </c>
-      <c r="R36" s="29">
+      <c r="R36">
         <v>31440.220712456106</v>
       </c>
-      <c r="S36" s="29">
+      <c r="S36">
         <v>40792.276470211742</v>
       </c>
-      <c r="T36" s="29">
+      <c r="T36">
         <v>52468.445647505636</v>
       </c>
-      <c r="U36" s="29">
+      <c r="U36">
         <v>59978.861207360009</v>
       </c>
-      <c r="V36" s="29">
+      <c r="V36">
         <v>64706.989902603484</v>
       </c>
-      <c r="W36" s="29">
+      <c r="W36">
         <v>79811.597737175733</v>
       </c>
-      <c r="X36" s="29">
+      <c r="X36">
         <v>60733.981700227188</v>
       </c>
-      <c r="Y36" s="29">
+      <c r="Y36">
         <v>73021.309752503541</v>
       </c>
-      <c r="Z36" s="29">
+      <c r="Z36">
         <v>92992.997130745163</v>
       </c>
-      <c r="AA36" s="29">
+      <c r="AA36">
         <v>98041.36223808935</v>
       </c>
-      <c r="AB36" s="29">
+      <c r="AB36">
         <v>97630.825515208766</v>
       </c>
-      <c r="AC36" s="29">
+      <c r="AC36">
         <v>93126.149463382157</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" t="s">
         <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4420,14 +4387,14 @@
         <v>19903.475105725312</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4509,14 +4476,14 @@
         <v>98.598098754882798</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4543,9 +4510,6 @@
       <c r="K39">
         <v>92.707176208496094</v>
       </c>
-      <c r="L39" t="s">
-        <v>33</v>
-      </c>
       <c r="M39">
         <v>89.375137329101605</v>
       </c>
@@ -4598,14 +4562,14 @@
         <v>99.387718200683594</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4687,14 +4651,14 @@
         <v>21.12277444725531</v>
       </c>
     </row>
-    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" t="s">
         <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4776,103 +4740,103 @@
         <v>39242.275312575199</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42">
         <v>26682.849809461179</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42">
         <v>25668.493321466176</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42">
         <v>25630.080973092732</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42">
         <v>25019.372357889035</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42">
         <v>25463.496288506263</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42">
         <v>27010.67818570383</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42">
         <v>28596.506828797497</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42">
         <v>28709.246920678062</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42">
         <v>25905.843383617244</v>
       </c>
-      <c r="N42" s="29">
+      <c r="N42">
         <v>27261.90657331581</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42">
         <v>31855.500604717483</v>
       </c>
-      <c r="P42" s="29">
+      <c r="P42">
         <v>29909.009434843505</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42">
         <v>30221.966999513555</v>
       </c>
-      <c r="R42" s="29">
+      <c r="R42">
         <v>32607.372934828723</v>
       </c>
-      <c r="S42" s="29">
+      <c r="S42">
         <v>37017.736365468983</v>
       </c>
-      <c r="T42" s="29">
+      <c r="T42">
         <v>42190.554379463312</v>
       </c>
-      <c r="U42" s="29">
+      <c r="U42">
         <v>45339.585116580893</v>
       </c>
-      <c r="V42" s="29">
+      <c r="V42">
         <v>43918.380169426484</v>
       </c>
-      <c r="W42" s="29">
+      <c r="W42">
         <v>45140.769077243822</v>
       </c>
-      <c r="X42" s="29">
+      <c r="X42">
         <v>31722.58876379922</v>
       </c>
-      <c r="Y42" s="29">
+      <c r="Y42">
         <v>35392.260966964168</v>
       </c>
-      <c r="Z42" s="29">
+      <c r="Z42">
         <v>42078.61381254271</v>
       </c>
-      <c r="AA42" s="29">
+      <c r="AA42">
         <v>44386.786078984551</v>
       </c>
-      <c r="AB42" s="29">
+      <c r="AB42">
         <v>45729.607675682295</v>
       </c>
-      <c r="AC42" s="29">
+      <c r="AC42">
         <v>46865.964598367609</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4954,14 +4918,14 @@
         <v>7975.790608164305</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4994,43 +4958,31 @@
       <c r="M44">
         <v>98.294227600097699</v>
       </c>
-      <c r="N44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="T44" s="26">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="23">
         <v>96.85</v>
       </c>
-      <c r="U44" s="26">
+      <c r="U44" s="23">
         <v>71.22</v>
       </c>
-      <c r="V44" s="22">
+      <c r="V44">
         <v>101.538</v>
       </c>
-      <c r="W44" s="26">
+      <c r="W44" s="23">
         <v>87.97</v>
       </c>
-      <c r="X44" s="22">
+      <c r="X44">
         <v>95.355999999999995</v>
       </c>
-      <c r="Y44" s="22">
+      <c r="Y44">
         <v>97.88</v>
       </c>
-      <c r="Z44" s="22">
+      <c r="Z44">
         <v>98.108999999999995</v>
       </c>
       <c r="AA44">
@@ -5043,14 +4995,14 @@
         <v>118.973251342773</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5074,269 +5026,246 @@
       <c r="J45">
         <v>78.707122802734403</v>
       </c>
-      <c r="K45" t="s">
-        <v>33</v>
-      </c>
       <c r="L45">
         <v>67.756690979003906</v>
       </c>
       <c r="M45">
         <v>62.628700256347699</v>
       </c>
-      <c r="N45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="T45" s="26">
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="23">
         <v>78.69</v>
       </c>
-      <c r="U45" s="26">
+      <c r="U45" s="23">
         <v>66.45</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V45" s="23">
         <v>63.83</v>
       </c>
-      <c r="W45" s="26">
+      <c r="W45" s="23">
         <v>90.04</v>
       </c>
-      <c r="X45" s="26">
+      <c r="X45" s="23">
         <v>92.41</v>
       </c>
-      <c r="Y45" s="26">
+      <c r="Y45" s="23">
         <v>93.77</v>
       </c>
-      <c r="Z45" s="26">
+      <c r="Z45" s="23">
         <v>95.2</v>
       </c>
-      <c r="AA45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22">
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="13"/>
+      <c r="AC45" s="13"/>
+      <c r="AE45">
         <v>81.509788513183594</v>
       </c>
-      <c r="AF45" s="22">
+      <c r="AF45">
         <v>105.19735717773401</v>
       </c>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22">
+      <c r="AH45">
         <v>120.53073883056599</v>
       </c>
-      <c r="AI45" s="22">
+      <c r="AI45">
         <v>120.353652954102</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46">
         <v>10748.654712178137</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46">
         <v>11694.921735545462</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46">
         <v>10564.50973452331</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46">
         <v>10576.05236218135</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46">
         <v>11186.538223736638</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46">
         <v>11374.222469461642</v>
       </c>
-      <c r="K46" s="22">
+      <c r="K46">
         <v>11361.397889794323</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46">
         <v>11243.895475760521</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46">
         <v>10809.310438083892</v>
       </c>
-      <c r="N46" s="22">
+      <c r="N46">
         <v>10408.865291843942</v>
       </c>
-      <c r="O46" s="22">
+      <c r="O46">
         <v>9624.1182194299017</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46">
         <v>11638.61944219758</v>
       </c>
-      <c r="Q46" s="22">
+      <c r="Q46">
         <v>10973.908364993373</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46">
         <v>10287.493218070913</v>
       </c>
-      <c r="S46" s="22">
+      <c r="S46">
         <v>10480.615344702766</v>
       </c>
-      <c r="T46" s="22">
+      <c r="T46">
         <v>10394.300341065729</v>
       </c>
-      <c r="U46" s="22">
+      <c r="U46">
         <v>9430.1461087407624</v>
       </c>
-      <c r="V46" s="22">
+      <c r="V46">
         <v>8537.9169516045986</v>
       </c>
-      <c r="W46" s="22">
+      <c r="W46">
         <v>8487.835980588623</v>
       </c>
-      <c r="X46" s="22">
+      <c r="X46">
         <v>7501.0405818149784</v>
       </c>
-      <c r="Y46" s="22">
+      <c r="Y46">
         <v>7273.2493013546346</v>
       </c>
-      <c r="Z46" s="22">
+      <c r="Z46">
         <v>7502.5620961831237</v>
       </c>
-      <c r="AA46" s="22">
+      <c r="AA46">
         <v>7892.7059058145496</v>
       </c>
-      <c r="AB46" s="22">
+      <c r="AB46">
         <v>7992.4421667791948</v>
       </c>
-      <c r="AC46" s="22">
+      <c r="AC46">
         <v>7975.790608164305</v>
       </c>
     </row>
-    <row r="47" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="23"/>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:35" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23"/>
-      <c r="D48" s="23"/>
-    </row>
-    <row r="49" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="T49" s="26" t="s">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="T49" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="U49" s="26"/>
-      <c r="V49" s="27" t="s">
+      <c r="U49" s="23"/>
+      <c r="V49" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-    </row>
-    <row r="50" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A50" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="22">
+      <c r="D50" s="1"/>
+      <c r="E50">
         <v>62.243580000000001</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50">
         <v>67.05556</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G50">
         <v>69.715959999999995</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50">
         <v>73.712419999999995</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50">
         <v>79.472489999999993</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50">
         <v>83.475210000000004</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50">
         <v>80.616159999999994</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50">
         <v>80.958709999999996</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50">
         <v>83.366910000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A51" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="23"/>
-    </row>
-    <row r="52" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-      <c r="D52" s="23"/>
-    </row>
-    <row r="53" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="23"/>
-      <c r="D53" s="23"/>
-    </row>
-    <row r="54" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="23"/>
-      <c r="D54" s="23"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>35</v>
       </c>
@@ -5425,7 +5354,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -5514,31 +5443,31 @@
         <v>2214465</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>127</v>
       </c>
@@ -5591,7 +5520,7 @@
         <v>85524</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>129</v>
       </c>
@@ -5607,7 +5536,7 @@
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A71" s="15" t="s">
         <v>126</v>
       </c>
@@ -5623,7 +5552,7 @@
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
         <v>130</v>
       </c>
@@ -5642,14 +5571,14 @@
         <v>184839</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>131</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
     </row>
-    <row r="74" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="18" t="s">
         <v>130</v>
       </c>
@@ -5698,7 +5627,7 @@
         <v>384373</v>
       </c>
     </row>
-    <row r="75" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="18" t="s">
         <v>128</v>
       </c>
@@ -5731,7 +5660,7 @@
       <c r="AB75" s="18"/>
       <c r="AC75" s="18"/>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -5820,7 +5749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -5909,7 +5838,7 @@
         <v>58.296729999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -5922,57 +5851,9 @@
       <c r="D79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E79" t="s">
-        <v>33</v>
-      </c>
-      <c r="F79" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" t="s">
-        <v>33</v>
-      </c>
-      <c r="I79" t="s">
-        <v>33</v>
-      </c>
-      <c r="J79" t="s">
-        <v>33</v>
-      </c>
-      <c r="K79" t="s">
-        <v>33</v>
-      </c>
-      <c r="L79" t="s">
-        <v>33</v>
-      </c>
-      <c r="M79" t="s">
-        <v>33</v>
-      </c>
-      <c r="N79" t="s">
-        <v>33</v>
-      </c>
-      <c r="O79" t="s">
-        <v>33</v>
-      </c>
-      <c r="P79" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>33</v>
-      </c>
-      <c r="R79" t="s">
-        <v>33</v>
-      </c>
-      <c r="S79" t="s">
-        <v>33</v>
-      </c>
       <c r="T79">
         <v>95.701710000000006</v>
       </c>
-      <c r="U79" t="s">
-        <v>33</v>
-      </c>
       <c r="V79">
         <v>100.43782</v>
       </c>
@@ -5998,7 +5879,7 @@
         <v>119.03267</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -6011,83 +5892,17 @@
       <c r="D80" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E80" t="s">
-        <v>33</v>
-      </c>
-      <c r="F80" t="s">
-        <v>33</v>
-      </c>
-      <c r="G80" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" t="s">
-        <v>33</v>
-      </c>
-      <c r="I80" t="s">
-        <v>33</v>
-      </c>
-      <c r="J80" t="s">
-        <v>33</v>
-      </c>
-      <c r="K80" t="s">
-        <v>33</v>
-      </c>
-      <c r="L80" t="s">
-        <v>33</v>
-      </c>
-      <c r="M80" t="s">
-        <v>33</v>
-      </c>
-      <c r="N80" t="s">
-        <v>33</v>
-      </c>
-      <c r="O80" t="s">
-        <v>33</v>
-      </c>
-      <c r="P80" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>33</v>
-      </c>
-      <c r="R80" t="s">
-        <v>33</v>
-      </c>
-      <c r="S80" t="s">
-        <v>33</v>
-      </c>
       <c r="T80">
         <v>87.438760000000002</v>
       </c>
-      <c r="U80" t="s">
-        <v>33</v>
-      </c>
       <c r="V80">
         <v>90.532409999999999</v>
       </c>
-      <c r="W80" t="s">
-        <v>33</v>
-      </c>
       <c r="X80">
         <v>94.787350000000004</v>
       </c>
-      <c r="Y80" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -6103,9 +5918,6 @@
       <c r="E81">
         <v>12.00569</v>
       </c>
-      <c r="F81" t="s">
-        <v>33</v>
-      </c>
       <c r="G81">
         <v>11.87241</v>
       </c>
@@ -6124,15 +5936,9 @@
       <c r="L81">
         <v>24.90232</v>
       </c>
-      <c r="M81" t="s">
-        <v>33</v>
-      </c>
       <c r="N81">
         <v>23.950330000000001</v>
       </c>
-      <c r="O81" t="s">
-        <v>33</v>
-      </c>
       <c r="P81">
         <v>21.256609999999998</v>
       </c>
@@ -6145,38 +5951,11 @@
       <c r="S81">
         <v>19.20824</v>
       </c>
-      <c r="T81" t="s">
-        <v>33</v>
-      </c>
-      <c r="U81" t="s">
-        <v>33</v>
-      </c>
-      <c r="V81" t="s">
-        <v>33</v>
-      </c>
-      <c r="W81" t="s">
-        <v>33</v>
-      </c>
-      <c r="X81" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>33</v>
-      </c>
       <c r="AC81">
         <v>51.029699999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -6265,7 +6044,7 @@
         <v>103.7813</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -6281,9 +6060,6 @@
       <c r="E83">
         <v>83.746369999999999</v>
       </c>
-      <c r="F83" t="s">
-        <v>33</v>
-      </c>
       <c r="G83">
         <v>53.025509999999997</v>
       </c>
@@ -6314,9 +6090,6 @@
       <c r="P83">
         <v>91.448880000000003</v>
       </c>
-      <c r="Q83" t="s">
-        <v>33</v>
-      </c>
       <c r="R83">
         <v>98.208330000000004</v>
       </c>
@@ -6354,7 +6127,7 @@
         <v>93.89049</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -6394,18 +6167,6 @@
       <c r="M84">
         <v>7.7423099999999998</v>
       </c>
-      <c r="N84" t="s">
-        <v>33</v>
-      </c>
-      <c r="O84" t="s">
-        <v>33</v>
-      </c>
-      <c r="P84" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>33</v>
-      </c>
       <c r="R84">
         <v>14.797219999999999</v>
       </c>
@@ -6433,9 +6194,6 @@
       <c r="Z84">
         <v>27.003229999999999</v>
       </c>
-      <c r="AA84" t="s">
-        <v>33</v>
-      </c>
       <c r="AB84">
         <v>29.936540000000001</v>
       </c>
@@ -6443,7 +6201,7 @@
         <v>34.555190000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -6498,9 +6256,6 @@
       <c r="R85">
         <v>91.917310000000001</v>
       </c>
-      <c r="S85" t="s">
-        <v>33</v>
-      </c>
       <c r="T85">
         <v>92.636200000000002</v>
       </c>
@@ -6516,9 +6271,6 @@
       <c r="X85">
         <v>103.15225</v>
       </c>
-      <c r="Y85" t="s">
-        <v>33</v>
-      </c>
       <c r="Z85">
         <v>102.55038999999999</v>
       </c>
@@ -6532,7 +6284,7 @@
         <v>109.69539</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -6587,9 +6339,6 @@
       <c r="R86">
         <v>85.828159999999997</v>
       </c>
-      <c r="S86" t="s">
-        <v>33</v>
-      </c>
       <c r="T86">
         <v>87.665120000000002</v>
       </c>
@@ -6605,9 +6354,6 @@
       <c r="X86">
         <v>99.776669999999996</v>
       </c>
-      <c r="Y86" t="s">
-        <v>33</v>
-      </c>
       <c r="Z86">
         <v>99.585549999999998</v>
       </c>
@@ -6617,11 +6363,8 @@
       <c r="AB86">
         <v>99.515699999999995</v>
       </c>
-      <c r="AC86" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>50</v>
       </c>
@@ -6634,9 +6377,6 @@
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E87" t="s">
-        <v>33</v>
-      </c>
       <c r="F87">
         <v>17.22944</v>
       </c>
@@ -6655,48 +6395,18 @@
       <c r="K87">
         <v>17.605740000000001</v>
       </c>
-      <c r="L87" t="s">
-        <v>33</v>
-      </c>
-      <c r="M87" t="s">
-        <v>33</v>
-      </c>
       <c r="N87">
         <v>21.647459999999999</v>
       </c>
-      <c r="O87" t="s">
-        <v>33</v>
-      </c>
-      <c r="P87" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>33</v>
-      </c>
       <c r="R87">
         <v>27.943110000000001</v>
       </c>
-      <c r="S87" t="s">
-        <v>33</v>
-      </c>
       <c r="T87">
         <v>23.95824</v>
       </c>
       <c r="U87">
         <v>22.794889999999999</v>
       </c>
-      <c r="V87" t="s">
-        <v>33</v>
-      </c>
-      <c r="W87" t="s">
-        <v>33</v>
-      </c>
-      <c r="X87" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>33</v>
-      </c>
       <c r="Z87">
         <v>43.96669</v>
       </c>
@@ -6710,7 +6420,7 @@
         <v>41.329239999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>50</v>
       </c>
@@ -6774,18 +6484,6 @@
       <c r="U88">
         <v>98.417140000000003</v>
       </c>
-      <c r="V88" t="s">
-        <v>33</v>
-      </c>
-      <c r="W88" t="s">
-        <v>33</v>
-      </c>
-      <c r="X88" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>33</v>
-      </c>
       <c r="Z88">
         <v>94.868970000000004</v>
       </c>
@@ -6799,7 +6497,7 @@
         <v>99.729079999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>50</v>
       </c>
@@ -6863,9 +6561,6 @@
       <c r="U89">
         <v>96.397210000000001</v>
       </c>
-      <c r="V89" t="s">
-        <v>33</v>
-      </c>
       <c r="W89">
         <v>91.792310000000001</v>
       </c>
@@ -6888,7 +6583,7 @@
         <v>98.942400000000006</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -6931,9 +6626,6 @@
       <c r="N90">
         <v>25.166499999999999</v>
       </c>
-      <c r="O90" t="s">
-        <v>33</v>
-      </c>
       <c r="P90">
         <v>20.046209999999999</v>
       </c>
@@ -6977,7 +6669,7 @@
         <v>13.580439999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -7066,7 +6758,7 @@
         <v>99.051270000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -7100,9 +6792,6 @@
       <c r="K92">
         <v>91.864230000000006</v>
       </c>
-      <c r="L92" t="s">
-        <v>33</v>
-      </c>
       <c r="M92">
         <v>87.779750000000007</v>
       </c>
@@ -7130,32 +6819,11 @@
       <c r="U92">
         <v>93.970489999999998</v>
       </c>
-      <c r="V92" t="s">
-        <v>33</v>
-      </c>
-      <c r="W92" t="s">
-        <v>33</v>
-      </c>
-      <c r="X92" t="s">
-        <v>33</v>
-      </c>
       <c r="Y92">
         <v>105.46579</v>
       </c>
-      <c r="Z92" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA92" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB92" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC92" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -7168,83 +6836,8 @@
       <c r="D93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E93" t="s">
-        <v>33</v>
-      </c>
-      <c r="F93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" t="s">
-        <v>33</v>
-      </c>
-      <c r="J93" t="s">
-        <v>33</v>
-      </c>
-      <c r="K93" t="s">
-        <v>33</v>
-      </c>
-      <c r="L93" t="s">
-        <v>33</v>
-      </c>
-      <c r="M93" t="s">
-        <v>33</v>
-      </c>
-      <c r="N93" t="s">
-        <v>33</v>
-      </c>
-      <c r="O93" t="s">
-        <v>33</v>
-      </c>
-      <c r="P93" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>33</v>
-      </c>
-      <c r="R93" t="s">
-        <v>33</v>
-      </c>
-      <c r="S93" t="s">
-        <v>33</v>
-      </c>
-      <c r="T93" t="s">
-        <v>33</v>
-      </c>
-      <c r="U93" t="s">
-        <v>33</v>
-      </c>
-      <c r="V93" t="s">
-        <v>33</v>
-      </c>
-      <c r="W93" t="s">
-        <v>33</v>
-      </c>
-      <c r="X93" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA93" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -7284,45 +6877,9 @@
       <c r="M94">
         <v>90.361230000000006</v>
       </c>
-      <c r="N94" t="s">
-        <v>33</v>
-      </c>
-      <c r="O94" t="s">
-        <v>33</v>
-      </c>
-      <c r="P94" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>33</v>
-      </c>
-      <c r="R94" t="s">
-        <v>33</v>
-      </c>
-      <c r="S94" t="s">
-        <v>33</v>
-      </c>
-      <c r="T94" t="s">
-        <v>33</v>
-      </c>
-      <c r="U94" t="s">
-        <v>33</v>
-      </c>
       <c r="V94">
         <v>101.58983000000001</v>
       </c>
-      <c r="W94" t="s">
-        <v>33</v>
-      </c>
-      <c r="X94" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>33</v>
-      </c>
       <c r="AA94">
         <v>99.943439999999995</v>
       </c>
@@ -7333,7 +6890,7 @@
         <v>103.07352</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -7364,174 +6921,123 @@
       <c r="J95">
         <v>81.753739999999993</v>
       </c>
-      <c r="K95" t="s">
-        <v>33</v>
-      </c>
       <c r="L95">
         <v>79.067790000000002</v>
       </c>
       <c r="M95">
         <v>79.175079999999994</v>
       </c>
-      <c r="N95" t="s">
-        <v>33</v>
-      </c>
-      <c r="O95" t="s">
-        <v>33</v>
-      </c>
-      <c r="P95" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>33</v>
-      </c>
-      <c r="R95" t="s">
-        <v>33</v>
-      </c>
-      <c r="S95" t="s">
-        <v>33</v>
-      </c>
-      <c r="T95" t="s">
-        <v>33</v>
-      </c>
-      <c r="U95" t="s">
-        <v>33</v>
-      </c>
-      <c r="V95" t="s">
-        <v>33</v>
-      </c>
-      <c r="W95" t="s">
-        <v>33</v>
-      </c>
-      <c r="X95" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>124</v>
       </c>
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="30" t="s">
+      <c r="B105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="29" t="s">
+      <c r="C105" t="s">
         <v>90</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" t="s">
         <v>72</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" t="s">
         <v>59</v>
       </c>
-      <c r="G105" s="29" t="s">
+      <c r="G105" t="s">
         <v>10</v>
       </c>
-      <c r="H105" s="29" t="s">
+      <c r="H105" t="s">
         <v>102</v>
       </c>
-      <c r="I105" s="29" t="s">
+      <c r="I105" t="s">
         <v>92</v>
       </c>
-      <c r="J105" s="29" t="s">
+      <c r="J105" t="s">
         <v>44</v>
       </c>
-      <c r="K105" s="29" t="s">
+      <c r="K105" t="s">
         <v>37</v>
       </c>
-      <c r="L105" s="29" t="s">
+      <c r="L105" t="s">
         <v>30</v>
       </c>
-      <c r="M105" s="29" t="s">
+      <c r="M105" t="s">
         <v>78</v>
       </c>
-      <c r="N105" s="29" t="s">
+      <c r="N105" t="s">
         <v>67</v>
       </c>
-      <c r="O105" s="29" t="s">
+      <c r="O105" t="s">
         <v>87</v>
       </c>
-      <c r="P105" s="29" t="s">
+      <c r="P105" t="s">
         <v>80</v>
       </c>
-      <c r="Q105" s="29" t="s">
+      <c r="Q105" t="s">
         <v>69</v>
       </c>
-      <c r="R105" s="29" t="s">
+      <c r="R105" t="s">
         <v>26</v>
       </c>
-      <c r="S105" s="29" t="s">
+      <c r="S105" t="s">
         <v>7</v>
       </c>
-      <c r="T105" s="29" t="s">
+      <c r="T105" t="s">
         <v>101</v>
       </c>
-      <c r="U105" s="29" t="s">
+      <c r="U105" t="s">
         <v>53</v>
       </c>
-      <c r="V105" s="29" t="s">
+      <c r="V105" t="s">
         <v>42</v>
       </c>
-      <c r="W105" s="29" t="s">
+      <c r="W105" t="s">
         <v>36</v>
       </c>
-      <c r="X105" s="29" t="s">
+      <c r="X105" t="s">
         <v>83</v>
       </c>
-      <c r="Y105" s="29" t="s">
+      <c r="Y105" t="s">
         <v>77</v>
       </c>
-      <c r="Z105" s="29" t="s">
+      <c r="Z105" t="s">
         <v>65</v>
       </c>
-      <c r="AA105" s="29" t="s">
+      <c r="AA105" t="s">
         <v>18</v>
       </c>
-      <c r="AB105" s="29" t="s">
+      <c r="AB105" t="s">
         <v>2</v>
       </c>
-      <c r="AC105" s="29" t="s">
+      <c r="AC105" t="s">
         <v>98</v>
       </c>
     </row>
@@ -7554,6 +7060,9 @@
     <hyperlink ref="V49" r:id="rId2" location="!ctype=l&amp;strail=false&amp;bcs=d&amp;nselm=h&amp;met_y=se&amp;scale_y=lin&amp;ind_y=false&amp;rdim=world&amp;idim=world:WLD&amp;idim=country:ARE&amp;ifdim=world&amp;tstart=1105732800000&amp;tend=1295035200000&amp;hl=en_US&amp;dl=en_US&amp;ind=false" display="https://www.google.com/publicdata/explore?ds=z6409butolt8la_&amp;ctype=l&amp;met_y=se#!ctype=l&amp;strail=false&amp;bcs=d&amp;nselm=h&amp;met_y=se&amp;scale_y=lin&amp;ind_y=false&amp;rdim=world&amp;idim=world:WLD&amp;idim=country:ARE&amp;ifdim=world&amp;tstart=1105732800000&amp;tend=1295035200000&amp;hl=en_US&amp;dl=en_US&amp;ind=false" xr:uid="{568C4CEA-4EB4-46DA-8089-0F1DAD4AAF5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7565,15 +7074,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="3" width="50.81640625" customWidth="1"/>
     <col min="4" max="4" width="104" customWidth="1"/>
-    <col min="5" max="14" width="50.77734375" customWidth="1"/>
+    <col min="5" max="14" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7617,7 +7126,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -7627,10 +7136,10 @@
       <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -7652,7 +7161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -7662,10 +7171,10 @@
       <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
@@ -7687,7 +7196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -7697,10 +7206,10 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F4" t="s">
@@ -7728,7 +7237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -7738,10 +7247,10 @@
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F5" t="s">
@@ -7766,7 +7275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -7776,10 +7285,10 @@
       <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F6" t="s">
@@ -7804,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7814,10 +7323,10 @@
       <c r="C7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F7" t="s">
@@ -7842,40 +7351,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="29" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7887,32 +7399,32 @@
       <selection activeCell="E2" sqref="E2:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="5" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:8" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7931,10 +7443,10 @@
       <c r="F2" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1970</v>
       </c>
@@ -7960,7 +7472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1971</v>
       </c>
@@ -7986,7 +7498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1972</v>
       </c>
@@ -8012,7 +7524,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1973</v>
       </c>
@@ -8038,7 +7550,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1974</v>
       </c>
@@ -8064,7 +7576,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1975</v>
       </c>
@@ -8090,7 +7602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1976</v>
       </c>
@@ -8116,7 +7628,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1977</v>
       </c>
@@ -8142,7 +7654,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1978</v>
       </c>
@@ -8168,7 +7680,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>1979</v>
       </c>
@@ -8194,7 +7706,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1980</v>
       </c>
@@ -8220,7 +7732,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>1981</v>
       </c>
@@ -8246,7 +7758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1982</v>
       </c>
@@ -8272,7 +7784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>1983</v>
       </c>
@@ -8298,7 +7810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1984</v>
       </c>
@@ -8324,7 +7836,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>1985</v>
       </c>
@@ -8350,7 +7862,7 @@
         <v>20413</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1986</v>
       </c>
@@ -8376,7 +7888,7 @@
         <v>21205</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>1987</v>
       </c>
@@ -8402,7 +7914,7 @@
         <v>20492</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1988</v>
       </c>
@@ -8428,7 +7940,7 @@
         <v>24350</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>1989</v>
       </c>
@@ -8454,7 +7966,7 @@
         <v>26460</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1990</v>
       </c>
@@ -8480,7 +7992,7 @@
         <v>27079</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>1991</v>
       </c>
@@ -8506,7 +8018,7 @@
         <v>28801</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1992</v>
       </c>
@@ -8532,7 +8044,7 @@
         <v>29878</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>1993</v>
       </c>
@@ -8558,7 +8070,7 @@
         <v>34161</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1994</v>
       </c>
@@ -8584,7 +8096,7 @@
         <v>36967</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>1995</v>
       </c>
@@ -8610,7 +8122,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1996</v>
       </c>
@@ -8636,7 +8148,7 @@
         <v>37019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>1997</v>
       </c>
@@ -8662,7 +8174,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1998</v>
       </c>
@@ -8688,7 +8200,7 @@
         <v>37295</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>1999</v>
       </c>
@@ -8712,7 +8224,7 @@
         <v>46187</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>2000</v>
       </c>
@@ -8738,7 +8250,7 @@
         <v>50004</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2001</v>
       </c>
@@ -8764,7 +8276,7 @@
         <v>55685</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>2002</v>
       </c>
@@ -8790,7 +8302,7 @@
         <v>66066</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2003</v>
       </c>
@@ -8816,7 +8328,7 @@
         <v>70755</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>2004</v>
       </c>
@@ -8842,7 +8354,7 @@
         <v>75860</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2005</v>
       </c>
@@ -8868,7 +8380,7 @@
         <v>74101</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>2006</v>
       </c>
@@ -8894,7 +8406,7 @@
         <v>67399</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2007</v>
       </c>
@@ -8920,7 +8432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>2008</v>
       </c>
@@ -8946,7 +8458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2009</v>
       </c>
@@ -8972,7 +8484,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>2010</v>
       </c>
@@ -8998,7 +8510,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>2011</v>
       </c>
@@ -9024,7 +8536,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>2012</v>
       </c>
@@ -9050,7 +8562,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>2013</v>
       </c>
@@ -9076,7 +8588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>2014</v>
       </c>
@@ -9102,7 +8614,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>2015</v>
       </c>
@@ -9128,7 +8640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>2016</v>
       </c>
@@ -9154,7 +8666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>2017</v>
       </c>
@@ -9180,7 +8692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>2018</v>
       </c>
@@ -9206,7 +8718,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>2019</v>
       </c>
@@ -9232,7 +8744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>2020</v>
       </c>
@@ -9258,7 +8770,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>2021</v>
       </c>
@@ -9284,7 +8796,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>2022</v>
       </c>
@@ -9310,32 +8822,32 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>119</v>
       </c>
@@ -9351,5 +8863,14 @@
     <hyperlink ref="A61" r:id="rId1" xr:uid="{DE69FD42-31FD-475E-AE88-423AB5021259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{8bb759f6-5337-4dc5-b19b-e74b6da11f8f}" enabled="1" method="Standard" siteId="{41ff26dc-250f-4b13-8981-739be8610c21}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Research Data.xlsx
+++ b/Research Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aandrade22\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E25F92-294F-4EE9-8F7B-99D3570D4C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492A70F-4713-4079-97A1-F4CB14214716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="152">
   <si>
     <t>Development relevance</t>
   </si>
@@ -1027,10 +1027,10 @@
   <dimension ref="A1:AI105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="A1:AI105"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1055,80 +1055,80 @@
       <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>98</v>
+      <c r="E1">
+        <v>1990</v>
+      </c>
+      <c r="F1">
+        <v>1991</v>
+      </c>
+      <c r="G1">
+        <v>1992</v>
+      </c>
+      <c r="H1">
+        <v>1993</v>
+      </c>
+      <c r="I1">
+        <v>1994</v>
+      </c>
+      <c r="J1">
+        <v>1995</v>
+      </c>
+      <c r="K1">
+        <v>1996</v>
+      </c>
+      <c r="L1">
+        <v>1997</v>
+      </c>
+      <c r="M1">
+        <v>1998</v>
+      </c>
+      <c r="N1">
+        <v>1999</v>
+      </c>
+      <c r="O1">
+        <v>2000</v>
+      </c>
+      <c r="P1">
+        <v>2001</v>
+      </c>
+      <c r="Q1">
+        <v>2002</v>
+      </c>
+      <c r="R1">
+        <v>2003</v>
+      </c>
+      <c r="S1">
+        <v>2004</v>
+      </c>
+      <c r="T1">
+        <v>2005</v>
+      </c>
+      <c r="U1">
+        <v>2006</v>
+      </c>
+      <c r="V1">
+        <v>2007</v>
+      </c>
+      <c r="W1">
+        <v>2008</v>
+      </c>
+      <c r="X1">
+        <v>2009</v>
+      </c>
+      <c r="Y1">
+        <v>2010</v>
+      </c>
+      <c r="Z1">
+        <v>2011</v>
+      </c>
+      <c r="AA1">
+        <v>2012</v>
+      </c>
+      <c r="AB1">
+        <v>2013</v>
+      </c>
+      <c r="AC1">
+        <v>2014</v>
       </c>
       <c r="AD1" t="s">
         <v>138</v>

--- a/Research Data.xlsx
+++ b/Research Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yalin\Dropbox\05 MBA in Finance &amp; Sustainability\08. Dissertation\05. Chapters\02. Chapter 3 (Methodology)\01. Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aandrade22\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298444A-C388-41BB-9272-C1BA406787C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D81CF2-A581-4FB7-A156-68049FAC910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$AA$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="144">
   <si>
     <t>Development relevance</t>
   </si>
@@ -513,9 +512,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>UAE</t>
   </si>
 </sst>
 </file>
@@ -673,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -711,19 +707,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1039,17 +1032,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1062,99 +1055,99 @@
       <c r="D1">
         <v>1991</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1">
         <v>1992</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1">
         <v>1993</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1">
         <v>1994</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1">
         <v>1995</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1">
         <v>1996</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1">
         <v>1997</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1">
         <v>1998</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1">
         <v>1999</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1">
         <v>2000</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1">
         <v>2001</v>
       </c>
-      <c r="O1" s="26">
+      <c r="O1">
         <v>2002</v>
       </c>
-      <c r="P1" s="26">
+      <c r="P1">
         <v>2003</v>
       </c>
-      <c r="Q1" s="26">
+      <c r="Q1">
         <v>2004</v>
       </c>
-      <c r="R1" s="26">
+      <c r="R1">
         <v>2005</v>
       </c>
-      <c r="S1" s="26">
+      <c r="S1">
         <v>2006</v>
       </c>
-      <c r="T1" s="26">
+      <c r="T1">
         <v>2007</v>
       </c>
-      <c r="U1" s="26">
+      <c r="U1">
         <v>2008</v>
       </c>
-      <c r="V1" s="26">
+      <c r="V1">
         <v>2009</v>
       </c>
-      <c r="W1" s="26">
+      <c r="W1">
         <v>2010</v>
       </c>
-      <c r="X1" s="26">
+      <c r="X1">
         <v>2011</v>
       </c>
-      <c r="Y1" s="26">
+      <c r="Y1">
         <v>2012</v>
       </c>
-      <c r="Z1" s="26">
+      <c r="Z1">
         <v>2013</v>
       </c>
-      <c r="AA1" s="26">
+      <c r="AA1">
         <v>2014</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2">
@@ -1233,11 +1226,11 @@
         <v>16.825236126593762</v>
       </c>
     </row>
-    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" t="s">
         <v>92</v>
       </c>
       <c r="C3">
@@ -1316,94 +1309,94 @@
         <v>19905.994836590748</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4">
         <v>7349.7034354640464</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4">
         <v>7939.2978635383388</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4">
         <v>7932.705910379821</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4">
         <v>7450.6587975736511</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4">
         <v>7359.4484982222721</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4">
         <v>7588.7612340068436</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4">
         <v>8174.141608930373</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4">
         <v>8323.8266988148425</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4">
         <v>7169.3664774678318</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4">
         <v>7697.2706840567625</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4">
         <v>8795.2605964187151</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4">
         <v>8337.3227236609637</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4">
         <v>8380.9592955137723</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4">
         <v>9321.803873716759</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4">
         <v>10935.016589983656</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4">
         <v>13462.763048926527</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4">
         <v>14848.60205803083</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4">
         <v>15756.193622652971</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4">
         <v>18944.857349436297</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4">
         <v>15064.631280689628</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4">
         <v>17958.947831333062</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4">
         <v>22441.571143891022</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4">
         <v>24069.203314813149</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4">
         <v>23945.512310689199</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4">
         <v>23862.801186009579</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5">
@@ -1482,11 +1475,11 @@
         <v>6645.9602078892685</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12">
@@ -1590,11 +1583,11 @@
         <v>51.222095925771491</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="12">
@@ -1698,183 +1691,183 @@
         <v>23.996068393716314</v>
       </c>
     </row>
-    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>4.2280990000000003</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>4.210477</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>4.1929020000000001</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <v>4.1689040000000004</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>4.1446170000000002</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>4.1247949999999998</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>4.0951639999999996</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>4.0603850000000001</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>4.0339689999999999</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>4.0170149999999998</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>4.009868</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>3.992556</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="19">
         <v>3.999587</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="19">
         <v>4.003101</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="19">
         <v>3.9965440000000001</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>3.982669</v>
       </c>
-      <c r="S8" s="20">
+      <c r="S8" s="19">
         <v>3.9721229999999998</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="19">
         <v>3.9581019999999998</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="19">
         <v>3.9496479999999998</v>
       </c>
-      <c r="V8" s="20">
+      <c r="V8" s="19">
         <v>3.9448859999999999</v>
       </c>
-      <c r="W8" s="20">
+      <c r="W8" s="19">
         <v>3.9339520000000001</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="19">
         <v>3.930469</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="19">
         <v>3.9367740000000002</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="19">
         <v>3.9343159999999999</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="19">
         <v>3.9361709999999999</v>
       </c>
       <c r="AB8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>2.359083</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>2.39737</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>2.409516</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>2.4674160000000001</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>2.537874</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>2.6186449999999999</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>2.7146919999999999</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>2.809294</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>2.8692639999999998</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>2.9107609999999999</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <v>2.942841</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>2.981106</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="19">
         <v>2.992451</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>3.019549</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="19">
         <v>3.0666479999999998</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <v>3.0943200000000002</v>
       </c>
-      <c r="S9" s="20">
+      <c r="S9" s="19">
         <v>3.0920209999999999</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="19">
         <v>3.110805</v>
       </c>
-      <c r="U9" s="20">
+      <c r="U9" s="19">
         <v>3.1335839999999999</v>
       </c>
-      <c r="V9" s="20">
+      <c r="V9" s="19">
         <v>3.1655139999999999</v>
       </c>
-      <c r="W9" s="20">
+      <c r="W9" s="19">
         <v>3.1997490000000002</v>
       </c>
-      <c r="X9" s="20">
+      <c r="X9" s="19">
         <v>3.2058800000000001</v>
       </c>
-      <c r="Y9" s="20">
+      <c r="Y9" s="19">
         <v>3.186728</v>
       </c>
-      <c r="Z9" s="20">
+      <c r="Z9" s="19">
         <v>3.199735</v>
       </c>
-      <c r="AA9" s="20">
+      <c r="AA9" s="19">
         <v>3.1778900000000001</v>
       </c>
-      <c r="AB9" s="21" t="s">
+      <c r="AB9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
       <c r="C10">
@@ -1953,11 +1946,11 @@
         <v>22.749990429563717</v>
       </c>
     </row>
-    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -2036,94 +2029,94 @@
         <v>30282.47101409794</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12">
         <v>11002.065615430409</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12">
         <v>8219.4801815209939</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12">
         <v>12253.579443787659</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12">
         <v>14477.951066116655</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12">
         <v>15141.303388314855</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12">
         <v>16424.97540906585</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12">
         <v>18488.839611130497</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12">
         <v>17230.055104285828</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12">
         <v>14258.355821183532</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12">
         <v>16044.493793501344</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12">
         <v>19493.888049091453</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12">
         <v>17517.706145600434</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12">
         <v>18626.774923182977</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12">
         <v>22781.082819458043</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12">
         <v>27601.400059072166</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12">
         <v>36144.994945871644</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12">
         <v>42970.696448825845</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12">
         <v>45729.799339983954</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12">
         <v>55595.484312959168</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12">
         <v>37906.205185174833</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12">
         <v>39212.579413771149</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12">
         <v>49010.310500129912</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Y12">
         <v>51271.06775693391</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12">
         <v>47762.79670320922</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12">
         <v>43239.835177917113</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" t="s">
         <v>89</v>
       </c>
       <c r="C13">
@@ -2202,11 +2195,11 @@
         <v>9006.5049723733409</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14">
@@ -2285,11 +2278,11 @@
         <v>95.987731933593807</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15">
@@ -2364,11 +2357,11 @@
         <v>90.034919738769503</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16">
@@ -2447,11 +2440,11 @@
         <v>16.558313527136008</v>
       </c>
     </row>
-    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
       <c r="C17">
@@ -2530,177 +2523,177 @@
         <v>18694.310951892352</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18">
         <v>6475.4170704596318</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18">
         <v>5984.3606170438161</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18">
         <v>6272.4694368476812</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18">
         <v>6029.8763880612632</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18">
         <v>6054.7438840015502</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18">
         <v>6352.8230585353285</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18">
         <v>6913.1464620588713</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18">
         <v>7052.6967704541576</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18">
         <v>6139.732825205966</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18">
         <v>6742.8246029806523</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18">
         <v>8321.3938665155711</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18">
         <v>8191.5128316246828</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18">
         <v>8380.0389517872736</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18">
         <v>8896.9025302096306</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18">
         <v>10030.444426206544</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18">
         <v>12357.701391187333</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18">
         <v>14533.72942324941</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18">
         <v>16151.275839059044</v>
       </c>
-      <c r="U18" s="26">
+      <c r="U18">
         <v>22974.277350431879</v>
       </c>
-      <c r="V18" s="26">
+      <c r="V18">
         <v>17937.979567685899</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18">
         <v>22552.19900712333</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18">
         <v>24166.096305362436</v>
       </c>
-      <c r="Y18" s="26">
+      <c r="Y18">
         <v>24722.638824587379</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="Z18">
         <v>23563.940599222849</v>
       </c>
-      <c r="AA18" s="26">
+      <c r="AA18">
         <v>23121.206376855938</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19">
         <v>2338.1501160416815</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19">
         <v>3081.4157125391848</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19">
         <v>2749.048849325543</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19">
         <v>2863.718634584829</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19">
         <v>2830.5205806882491</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19">
         <v>2807.8987532402498</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19">
         <v>2837.7485001977416</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19">
         <v>3003.6484876121535</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19">
         <v>2979.7212560977696</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19">
         <v>3044.3742973276831</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19">
         <v>3228.7155012705543</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19">
         <v>3233.1860697120796</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19">
         <v>3358.6365620081715</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19">
         <v>3537.3046553709491</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19">
         <v>3567.4513084000478</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19">
         <v>3938.2281750260017</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19">
         <v>6025.9828660624707</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19">
         <v>6791.8847142802324</v>
       </c>
-      <c r="U19" s="21">
+      <c r="U19">
         <v>5904.6754692896484</v>
       </c>
-      <c r="V19" s="21">
+      <c r="V19">
         <v>5863.3939034015102</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19">
         <v>6495.1400354070256</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19">
         <v>6864.5997499119085</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="Y19">
         <v>6695.7443179745096</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19">
         <v>6402.0038357944604</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA19">
         <v>6067.7183634814046</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20">
@@ -2775,11 +2768,11 @@
         <v>105.67872619628901</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21">
@@ -2852,11 +2845,11 @@
       </c>
       <c r="AA21" s="12"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22">
@@ -2935,11 +2928,11 @@
         <v>23.096571364940576</v>
       </c>
     </row>
-    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" t="s">
         <v>92</v>
       </c>
       <c r="C23">
@@ -3018,177 +3011,177 @@
         <v>23107.956592584389</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24">
         <v>8174.7972317208778</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24">
         <v>8621.7670484676746</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24">
         <v>8568.6580514495545</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24">
         <v>9063.5653849584032</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24">
         <v>9384.7718809258895</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24">
         <v>9543.389368429449</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24">
         <v>9643.3086942995615</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24">
         <v>9728.4463230541369</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24">
         <v>9195.4256097463731</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24">
         <v>9566.0954936990802</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24">
         <v>12738.774118157506</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24">
         <v>12291.832613053541</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24">
         <v>12819.995935313946</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24">
         <v>14230.296752980039</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24">
         <v>15777.963640895607</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24">
         <v>17705.235163894973</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24">
         <v>19057.79890471376</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T24">
         <v>20883.548031199425</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24">
         <v>23155.821449155035</v>
       </c>
-      <c r="V24" s="26">
+      <c r="V24">
         <v>19448.183255378877</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24">
         <v>21186.814329227858</v>
       </c>
-      <c r="X24" s="26">
+      <c r="X24">
         <v>23741.557462670153</v>
       </c>
-      <c r="Y24" s="26">
+      <c r="Y24">
         <v>25102.726348526987</v>
       </c>
-      <c r="Z24" s="26">
+      <c r="Z24">
         <v>25790.730312138236</v>
       </c>
-      <c r="AA24" s="26">
+      <c r="AA24">
         <v>25464.760097714992</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25">
         <v>10116.938336122825</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25">
         <v>9624.0953279231999</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25">
         <v>10224.311504680145</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25">
         <v>10413.293130343091</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25">
         <v>10704.999882006696</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25">
         <v>10492.110080367544</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25">
         <v>10160.015867095688</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25">
         <v>11104.040034138114</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25">
         <v>11322.236662879712</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25">
         <v>10899.682575458763</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25">
         <v>11199.608682085118</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25">
         <v>11212.397827066361</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O25">
         <v>11345.210096161556</v>
       </c>
-      <c r="P25" s="21">
+      <c r="P25">
         <v>11573.262525441498</v>
       </c>
-      <c r="Q25" s="21">
+      <c r="Q25">
         <v>10847.863881619915</v>
       </c>
-      <c r="R25" s="21">
+      <c r="R25">
         <v>11510.318531223909</v>
       </c>
-      <c r="S25" s="21">
+      <c r="S25">
         <v>11454.060378112445</v>
       </c>
-      <c r="T25" s="21">
+      <c r="T25">
         <v>11184.114472212292</v>
       </c>
-      <c r="U25" s="21">
+      <c r="U25">
         <v>11362.069198436879</v>
       </c>
-      <c r="V25" s="21">
+      <c r="V25">
         <v>10388.482627116129</v>
       </c>
-      <c r="W25" s="21">
+      <c r="W25">
         <v>10436.771049194782</v>
       </c>
-      <c r="X25" s="21">
+      <c r="X25">
         <v>10453.083426217971</v>
       </c>
-      <c r="Y25" s="21">
+      <c r="Y25">
         <v>10251.069645100695</v>
       </c>
-      <c r="Z25" s="21">
+      <c r="Z25">
         <v>10860.468600025522</v>
       </c>
-      <c r="AA25" s="21">
+      <c r="AA25">
         <v>10798.122846329972</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26">
@@ -3259,11 +3252,11 @@
         <v>105.241493225098</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27">
@@ -3340,11 +3333,11 @@
         <v>104.19476318359401</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28">
@@ -3423,11 +3416,11 @@
         <v>37.105034398827712</v>
       </c>
     </row>
-    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="12"/>
@@ -3486,71 +3479,71 @@
         <v>69723.727374803639</v>
       </c>
     </row>
-    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="15">
-        <f>(C63*1000000/C54)*0.27461*1.34</f>
+        <f t="shared" ref="C30:Q30" si="3">(C63*1000000/C54)*0.27461*1.34</f>
         <v>25639.070600781124</v>
       </c>
       <c r="D30" s="15">
-        <f>(D63*1000000/D54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>24560.524141375641</v>
       </c>
       <c r="E30" s="15">
-        <f>(E63*1000000/E54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>26622.346200346714</v>
       </c>
       <c r="F30" s="15">
-        <f>(F63*1000000/F54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>25476.121376591687</v>
       </c>
       <c r="G30" s="15">
-        <f>(G63*1000000/G54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>25047.125210961833</v>
       </c>
       <c r="H30" s="15">
-        <f>(H63*1000000/H54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>25718.908145275109</v>
       </c>
       <c r="I30" s="15">
-        <f>(I63*1000000/I54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>26093.846748604199</v>
       </c>
       <c r="J30" s="15">
-        <f>(J63*1000000/J54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>32436.809049911826</v>
       </c>
       <c r="K30" s="15">
-        <f>(K63*1000000/K54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>34332.278689562947</v>
       </c>
       <c r="L30" s="15">
-        <f>(L63*1000000/L54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>33986.04903554856</v>
       </c>
       <c r="M30" s="15">
-        <f>(M63*1000000/M54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>35197.110061197927</v>
       </c>
       <c r="N30" s="15">
-        <f>(N63*1000000/N54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>34606.076057221908</v>
       </c>
       <c r="O30" s="15">
-        <f>(O63*1000000/O54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>35288.755381625553</v>
       </c>
       <c r="P30" s="15">
-        <f>(P63*1000000/P54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>34796.176947196152</v>
       </c>
       <c r="Q30" s="15">
-        <f>(Q63*1000000/Q54)*0.27461*1.34</f>
+        <f t="shared" si="3"/>
         <v>40453.99104767316</v>
       </c>
       <c r="R30" s="15">
@@ -3566,205 +3559,205 @@
         <v>51504.714482101932</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" ref="U30:AA30" si="3">(U68*1000000/U54)*0.27461*1.25</f>
+        <f t="shared" ref="U30:AA30" si="4">(U68*1000000/U54)*0.27461*1.25</f>
         <v>51690.551466235353</v>
       </c>
       <c r="V30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51905.248827218231</v>
       </c>
       <c r="W30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56939.573470502553</v>
       </c>
       <c r="X30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61119.857977708321</v>
       </c>
       <c r="Y30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61359.842561107442</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61067.136051517533</v>
       </c>
       <c r="AA30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59581.360243896386</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31">
         <v>16664.83143278864</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31">
         <v>15079.359462319728</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31">
         <v>16223.780076335705</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31">
         <v>14724.25917534972</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31">
         <v>14728.782022219188</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31">
         <v>15797.69103905589</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31">
         <v>17116.83255952195</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31">
         <v>20519.409353557567</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31">
         <v>17651.54558022249</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31">
         <v>20207.225588913567</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31">
         <v>27494.771332018619</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31">
         <v>25836.270792673782</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31">
         <v>27151.032498866021</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31">
         <v>31440.220712456106</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31">
         <v>40792.276470211742</v>
       </c>
-      <c r="R31" s="26">
+      <c r="R31">
         <v>52468.445647505636</v>
       </c>
-      <c r="S31" s="26">
+      <c r="S31">
         <v>59978.861207360009</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31">
         <v>64706.989902603484</v>
       </c>
-      <c r="U31" s="26">
+      <c r="U31">
         <v>79811.597737175733</v>
       </c>
-      <c r="V31" s="26">
+      <c r="V31">
         <v>60733.981700227188</v>
       </c>
-      <c r="W31" s="26">
+      <c r="W31">
         <v>73021.309752503541</v>
       </c>
-      <c r="X31" s="26">
+      <c r="X31">
         <v>92992.997130745163</v>
       </c>
-      <c r="Y31" s="26">
+      <c r="Y31">
         <v>98041.36223808935</v>
       </c>
-      <c r="Z31" s="26">
+      <c r="Z31">
         <v>97630.825515208766</v>
       </c>
-      <c r="AA31" s="26">
+      <c r="AA31">
         <v>93126.149463382157</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32">
         <v>14776.657044206711</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32">
         <v>15820.49394724044</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32">
         <v>16022.739569652</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32">
         <v>16120.991850481749</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32">
         <v>15708.122704385809</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32">
         <v>15819.141852686589</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32">
         <v>16337.335739185475</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32">
         <v>18479.284986496328</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32">
         <v>18368.427031464878</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32">
         <v>18454.00471545829</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M32">
         <v>16906.15029019858</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32">
         <v>17777.159558122716</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O32">
         <v>19140.337864175683</v>
       </c>
-      <c r="P32" s="21">
+      <c r="P32">
         <v>18879.894459102903</v>
       </c>
-      <c r="Q32" s="21">
+      <c r="Q32">
         <v>21420.628503630727</v>
       </c>
-      <c r="R32" s="21">
+      <c r="R32">
         <v>19635.424349895722</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32">
         <v>19300.107382814807</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32">
         <v>17969.106894835833</v>
       </c>
-      <c r="U32" s="21">
+      <c r="U32">
         <v>15748.64655464291</v>
       </c>
-      <c r="V32" s="21">
+      <c r="V32">
         <v>15049.497166320762</v>
       </c>
-      <c r="W32" s="21">
+      <c r="W32">
         <v>16131.581251050478</v>
       </c>
-      <c r="X32" s="21">
+      <c r="X32">
         <v>17344.592613449611</v>
       </c>
-      <c r="Y32" s="21">
+      <c r="Y32">
         <v>19987.584353977101</v>
       </c>
-      <c r="Z32" s="21">
+      <c r="Z32">
         <v>19819.982893646331</v>
       </c>
-      <c r="AA32" s="21">
+      <c r="AA32">
         <v>19903.475105725312</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" t="s">
         <v>53</v>
       </c>
       <c r="C33">
@@ -3843,11 +3836,11 @@
         <v>98.598098754882798</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34">
@@ -3924,11 +3917,11 @@
         <v>99.387718200683594</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35">
@@ -4007,11 +4000,11 @@
         <v>21.12277444725531</v>
       </c>
     </row>
-    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" t="s">
         <v>92</v>
       </c>
       <c r="C36">
@@ -4090,94 +4083,94 @@
         <v>39242.275312575199</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37">
         <v>26682.849809461179</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37">
         <v>25668.493321466176</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37">
         <v>25630.080973092732</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37">
         <v>25019.372357889035</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37">
         <v>25463.496288506263</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37">
         <v>27010.67818570383</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37">
         <v>28596.506828797497</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37">
         <v>28709.246920678062</v>
       </c>
-      <c r="K37" s="26">
+      <c r="K37">
         <v>25905.843383617244</v>
       </c>
-      <c r="L37" s="26">
+      <c r="L37">
         <v>27261.90657331581</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37">
         <v>31855.500604717483</v>
       </c>
-      <c r="N37" s="26">
+      <c r="N37">
         <v>29909.009434843505</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37">
         <v>30221.966999513555</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37">
         <v>32607.372934828723</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37">
         <v>37017.736365468983</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37">
         <v>42190.554379463312</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37">
         <v>45339.585116580893</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37">
         <v>43918.380169426484</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37">
         <v>45140.769077243822</v>
       </c>
-      <c r="V37" s="26">
+      <c r="V37">
         <v>31722.58876379922</v>
       </c>
-      <c r="W37" s="26">
+      <c r="W37">
         <v>35392.260966964168</v>
       </c>
-      <c r="X37" s="26">
+      <c r="X37">
         <v>42078.61381254271</v>
       </c>
-      <c r="Y37" s="26">
+      <c r="Y37">
         <v>44386.786078984551</v>
       </c>
-      <c r="Z37" s="26">
+      <c r="Z37">
         <v>45729.607675682295</v>
       </c>
-      <c r="AA37" s="26">
+      <c r="AA37">
         <v>46865.964598367609</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" t="s">
         <v>89</v>
       </c>
       <c r="C38">
@@ -4256,11 +4249,11 @@
         <v>7975.790608164305</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" t="s">
         <v>53</v>
       </c>
       <c r="C39">
@@ -4296,25 +4289,25 @@
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
-      <c r="R39" s="23">
+      <c r="R39" s="21">
         <v>96.85</v>
       </c>
-      <c r="S39" s="23">
+      <c r="S39" s="21">
         <v>71.22</v>
       </c>
-      <c r="T39" s="21">
+      <c r="T39">
         <v>101.538</v>
       </c>
-      <c r="U39" s="23">
+      <c r="U39" s="21">
         <v>87.97</v>
       </c>
-      <c r="V39" s="21">
+      <c r="V39">
         <v>95.355999999999995</v>
       </c>
-      <c r="W39" s="21">
+      <c r="W39">
         <v>97.88</v>
       </c>
-      <c r="X39" s="21">
+      <c r="X39">
         <v>98.108999999999995</v>
       </c>
       <c r="Y39">
@@ -4327,11 +4320,11 @@
         <v>118.973251342773</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40">
@@ -4365,108 +4358,101 @@
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="23">
+      <c r="R40" s="21">
         <v>78.69</v>
       </c>
-      <c r="S40" s="23">
+      <c r="S40" s="21">
         <v>66.45</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T40" s="21">
         <v>63.83</v>
       </c>
-      <c r="U40" s="23">
+      <c r="U40" s="21">
         <v>90.04</v>
       </c>
-      <c r="V40" s="23">
+      <c r="V40" s="21">
         <v>92.41</v>
       </c>
-      <c r="W40" s="23">
+      <c r="W40" s="21">
         <v>93.77</v>
       </c>
-      <c r="X40" s="23">
+      <c r="X40" s="21">
         <v>95.2</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21">
+      <c r="AC40">
         <v>81.509788513183594</v>
       </c>
-      <c r="AD40" s="21">
+      <c r="AD40">
         <v>105.19735717773401</v>
       </c>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21">
+      <c r="AF40">
         <v>120.53073883056599</v>
       </c>
-      <c r="AG40" s="21">
+      <c r="AG40">
         <v>120.353652954102</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="R43" s="23" t="s">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="R43" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="S43" s="23"/>
-      <c r="T43" s="24" t="s">
+      <c r="S43" s="21"/>
+      <c r="T43" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-    </row>
-    <row r="44" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44">
         <v>62.243580000000001</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44">
         <v>67.05556</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44">
         <v>69.715959999999995</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44">
         <v>73.712419999999995</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G44">
         <v>79.472489999999993</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44">
         <v>83.475210000000004</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44">
         <v>80.616159999999994</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44">
         <v>80.958709999999996</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L44">
         <v>83.366910000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B45" s="22"/>
-    </row>
-    <row r="46" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -4549,7 +4535,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -4632,17 +4618,17 @@
         <v>2214465</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>119</v>
       </c>
@@ -4693,7 +4679,7 @@
         <v>85524</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>121</v>
       </c>
@@ -4707,7 +4693,7 @@
       <c r="I64" s="12"/>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
         <v>118</v>
       </c>
@@ -4721,7 +4707,7 @@
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>122</v>
       </c>
@@ -4739,13 +4725,13 @@
         <v>184839</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A67" s="18" t="s">
         <v>123</v>
       </c>
       <c r="B67" s="18"/>
     </row>
-    <row r="68" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
         <v>122</v>
       </c>
@@ -4792,7 +4778,7 @@
         <v>384373</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>120</v>
       </c>
@@ -4823,7 +4809,7 @@
       <c r="Z69" s="17"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -4906,7 +4892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4989,7 +4975,7 @@
         <v>58.296729999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -5072,7 +5058,7 @@
         <v>119.03267</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5155,7 +5141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -5238,7 +5224,7 @@
         <v>51.029699999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -5321,7 +5307,7 @@
         <v>103.7813</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -5404,7 +5390,7 @@
         <v>93.89049</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5487,7 +5473,7 @@
         <v>34.555190000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -5570,7 +5556,7 @@
         <v>109.69539</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -5653,7 +5639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -5736,7 +5722,7 @@
         <v>41.329239999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -5819,7 +5805,7 @@
         <v>99.729079999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -5902,7 +5888,7 @@
         <v>98.942400000000006</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>62</v>
       </c>
@@ -5985,7 +5971,7 @@
         <v>13.580439999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>62</v>
       </c>
@@ -6068,7 +6054,7 @@
         <v>99.051270000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -6151,7 +6137,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -6234,7 +6220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -6317,7 +6303,7 @@
         <v>103.07352</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -6400,96 +6386,96 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A99" s="26" t="s">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="B99" t="s">
         <v>84</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" t="s">
         <v>67</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="D99" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="26" t="s">
+      <c r="E99" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="26" t="s">
+      <c r="F99" t="s">
         <v>94</v>
       </c>
-      <c r="G99" s="26" t="s">
+      <c r="G99" t="s">
         <v>86</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H99" t="s">
         <v>41</v>
       </c>
-      <c r="I99" s="26" t="s">
+      <c r="I99" t="s">
         <v>34</v>
       </c>
-      <c r="J99" s="26" t="s">
+      <c r="J99" t="s">
         <v>27</v>
       </c>
-      <c r="K99" s="26" t="s">
+      <c r="K99" t="s">
         <v>72</v>
       </c>
-      <c r="L99" s="26" t="s">
+      <c r="L99" t="s">
         <v>63</v>
       </c>
-      <c r="M99" s="26" t="s">
+      <c r="M99" t="s">
         <v>81</v>
       </c>
-      <c r="N99" s="26" t="s">
+      <c r="N99" t="s">
         <v>74</v>
       </c>
-      <c r="O99" s="26" t="s">
+      <c r="O99" t="s">
         <v>64</v>
       </c>
-      <c r="P99" s="26" t="s">
+      <c r="P99" t="s">
         <v>24</v>
       </c>
-      <c r="Q99" s="26" t="s">
+      <c r="Q99" t="s">
         <v>7</v>
       </c>
-      <c r="R99" s="26" t="s">
+      <c r="R99" t="s">
         <v>93</v>
       </c>
-      <c r="S99" s="26" t="s">
+      <c r="S99" t="s">
         <v>49</v>
       </c>
-      <c r="T99" s="26" t="s">
+      <c r="T99" t="s">
         <v>39</v>
       </c>
-      <c r="U99" s="26" t="s">
+      <c r="U99" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="26" t="s">
+      <c r="V99" t="s">
         <v>77</v>
       </c>
-      <c r="W99" s="26" t="s">
+      <c r="W99" t="s">
         <v>71</v>
       </c>
-      <c r="X99" s="26" t="s">
+      <c r="X99" t="s">
         <v>61</v>
       </c>
-      <c r="Y99" s="26" t="s">
+      <c r="Y99" t="s">
         <v>17</v>
       </c>
-      <c r="Z99" s="26" t="s">
+      <c r="Z99" t="s">
         <v>2</v>
       </c>
-      <c r="AA99" s="26" t="s">
+      <c r="AA99" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6511,4062 +6497,4047 @@
     <hyperlink ref="T43" r:id="rId2" location="!ctype=l&amp;strail=false&amp;bcs=d&amp;nselm=h&amp;met_y=se&amp;scale_y=lin&amp;ind_y=false&amp;rdim=world&amp;idim=world:WLD&amp;idim=country:ARE&amp;ifdim=world&amp;tstart=1105732800000&amp;tend=1295035200000&amp;hl=en_US&amp;dl=en_US&amp;ind=false" display="https://www.google.com/publicdata/explore?ds=z6409butolt8la_&amp;ctype=l&amp;met_y=se#!ctype=l&amp;strail=false&amp;bcs=d&amp;nselm=h&amp;met_y=se&amp;scale_y=lin&amp;ind_y=false&amp;rdim=world&amp;idim=world:WLD&amp;idim=country:ARE&amp;ifdim=world&amp;tstart=1105732800000&amp;tend=1295035200000&amp;hl=en_US&amp;dl=en_US&amp;ind=false" xr:uid="{568C4CEA-4EB4-46DA-8089-0F1DAD4AAF5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540B616A-71A9-41E9-8420-157925A81756}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.44140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="25" t="str" cm="1">
-        <f t="array" ref="B2:B33">TRANSPOSE('Raw Data'!B2:AG2)</f>
+      <c r="B1" s="23" t="str" cm="1">
+        <f t="array" ref="B1:B32">TRANSPOSE('Raw Data'!B2:AG2)</f>
         <v>CO2 emissions (metric tons per capita)</v>
       </c>
-      <c r="C2" s="25" t="str" cm="1">
-        <f t="array" ref="C2:C33">TRANSPOSE('Raw Data'!B4:AG4)</f>
+      <c r="C1" s="23" t="str" cm="1">
+        <f t="array" ref="C1:C32">TRANSPOSE('Raw Data'!B4:AG4)</f>
         <v>GDP per capita (current US$)</v>
       </c>
-      <c r="D2" s="25" t="str" cm="1">
-        <f t="array" ref="D2:D33">TRANSPOSE('Raw Data'!B5:AG5)</f>
+      <c r="D1" s="23" t="str" cm="1">
+        <f t="array" ref="D1:D32">TRANSPOSE('Raw Data'!B5:AG5)</f>
         <v>Energy use (kg of oil equivalent per capita)</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
-        <f t="array" ref="E2:E33">TRANSPOSE('Raw Data'!B6:AG6)</f>
+      <c r="E1" s="23" t="str" cm="1">
+        <f t="array" ref="E1:E32">TRANSPOSE('Raw Data'!B6:AG6)</f>
         <v>School enrollment, primary (% gross)</v>
       </c>
-      <c r="F2" s="25" t="str" cm="1">
-        <f t="array" ref="F2:F33">TRANSPOSE('Raw Data'!B7:AG7)</f>
+      <c r="F1" s="23" t="str" cm="1">
+        <f t="array" ref="F1:F32">TRANSPOSE('Raw Data'!B7:AG7)</f>
         <v>School enrollment, secondary (% gross)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" cm="1">
-        <f t="array" ref="A3:A33">TRANSPOSE('Raw Data'!C1:AG1)</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A32">TRANSPOSE('Raw Data'!C1:AG1)</f>
         <v>1990</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B2">
         <v>10.709518160312651</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C2">
         <v>7349.7034354640464</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D2">
         <v>3624.2029325895046</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E2">
         <v>68.586724802043207</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F2">
         <v>10.581244001498394</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B3">
         <v>11.283882889895665</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C3">
         <v>7939.2978635383388</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D3">
         <v>4054.2807144543535</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E3">
         <v>67.388676543607616</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F3">
         <v>10.994223516465576</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B4">
         <v>11.69073596680815</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C4">
         <v>7932.705910379821</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D4">
         <v>4451.4333081616887</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E4">
         <v>66.214667377799756</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F4">
         <v>11.128573611759325</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B5">
         <v>11.388958292627317</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C5">
         <v>7450.6587975736511</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D5">
         <v>4474.7756431933476</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E5">
         <v>64.644562826315507</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F5">
         <v>11.791937084577045</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B6">
         <v>11.235012136635914</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C6">
         <v>7359.4484982222721</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D6">
         <v>4574.8538398852579</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E6">
         <v>63.093452481296147</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F6">
         <v>12.65274262532389</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B7">
         <v>10.843985954258642</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C7">
         <v>7588.7612340068436</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D7">
         <v>4473.878382371151</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E7">
         <v>61.855127649380059</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F7">
         <v>13.717124283492698</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B8">
         <v>11.213254007670162</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C8">
         <v>8174.141608930373</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D8">
         <v>4660.33802706607</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E8">
         <v>60.049186416525565</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F8">
         <v>15.099958568361572</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B9">
         <v>11.0376436356881</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C9">
         <v>8323.8266988148425</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9">
         <v>4326.5368088887071</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E9">
         <v>57.996635485897279</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F9">
         <v>16.598195755040845</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B10">
         <v>11.424979167256888</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C10">
         <v>7169.3664774678318</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10">
         <v>4490.4262188742214</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E10">
         <v>56.484654528691756</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F10">
         <v>17.624042130221614</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B11">
         <v>11.400493868058787</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C11">
         <v>7697.2706840567625</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11">
         <v>4454.6215407579184</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E11">
         <v>55.53508593386568</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F11">
         <v>18.370773407479792</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B12">
         <v>11.586312773844069</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C12">
         <v>8795.2605964187151</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12">
         <v>4541.4725402937429</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E12">
         <v>55.139591656967838</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F12">
         <v>18.969662641526664</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B13">
         <v>11.504347405988673</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C13">
         <v>8337.3227236609637</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13">
         <v>4548.1106998034811</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E13">
         <v>54.193230385048295</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F13">
         <v>19.709603415835048</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B14">
         <v>12.034045257977189</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C14">
         <v>8380.9592955137723</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14">
         <v>4917.5228850286312</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E14">
         <v>54.575605652915513</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F14">
         <v>19.93448207881584</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15">
         <v>12.303148131038142</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C15">
         <v>9321.803873716759</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15">
         <v>4862.626926781556</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E15">
         <v>54.767721681351333</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F15">
         <v>20.482052195304725</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B16">
         <v>12.673985014162909</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16">
         <v>10935.016589983656</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16">
         <v>5063.1187608318014</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E16">
         <v>54.40978450973958</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F16">
         <v>21.469815103503045</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B17">
         <v>12.923100279682744</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C17">
         <v>13462.763048926527</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17">
         <v>5022.9662749403178</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E17">
         <v>53.660061977471116</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F17">
         <v>22.072224320752351</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B18">
         <v>13.214987115326203</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C18">
         <v>14848.60205803083</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18">
         <v>5349.8901424464602</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18">
         <v>53.097136487249671</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F18">
         <v>22.021538562642426</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B19">
         <v>13.432442674011297</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C19">
         <v>15756.193622652971</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D19">
         <v>5315.1866123981199</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E19">
         <v>52.357856370938123</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F19">
         <v>22.439100608137348</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B20">
         <v>14.203753547217183</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C20">
         <v>18944.857349436297</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D20">
         <v>5705.367423745286</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E20">
         <v>51.917088802827926</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F20">
         <v>22.956106969559382</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B21">
         <v>14.272208863165259</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C21">
         <v>15064.631280689628</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D21">
         <v>5850.4515040603619</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E21">
         <v>51.670447345342332</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F21">
         <v>23.700923177035886</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B22">
         <v>15.168386269394299</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C22">
         <v>17958.947831333062</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22">
         <v>6306.5936953676173</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E22">
         <v>51.108560109487541</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F22">
         <v>24.526373304752195</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B23">
         <v>15.381398493480054</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23">
         <v>22441.571143891022</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D23">
         <v>5907.6882001542572</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E23">
         <v>50.930858641378521</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F23">
         <v>24.677206405881289</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B24">
         <v>15.978015766439725</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C24">
         <v>24069.203314813149</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D24">
         <v>6500.2831947771074</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E24">
         <v>51.252992163894362</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F24">
         <v>24.209085582570612</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B25">
         <v>15.983919065126281</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C25">
         <v>23945.512310689199</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25">
         <v>6104.381107242506</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E25">
         <v>51.127167011618127</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F25">
         <v>24.526029937929497</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B26">
         <v>16.825236126593762</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C26">
         <v>23862.801186009579</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26">
         <v>6645.9602078892685</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26">
         <v>51.222095925771491</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F26">
         <v>23.996068393716314</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="str">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
         <v>2015</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="str">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <v>2016</v>
       </c>
-      <c r="B29" s="26">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="str">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <v>2017</v>
       </c>
-      <c r="B30" s="26">
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="str">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <v>2018</v>
       </c>
-      <c r="B31" s="26">
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <v>2019</v>
       </c>
-      <c r="B32" s="26">
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <v>2020</v>
       </c>
-      <c r="B33" s="26">
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFE51EE-0B59-4D52-A079-58285E1EE00E}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.44140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="25" t="str" cm="1">
-        <f t="array" ref="B2:B33">TRANSPOSE('Raw Data'!B10:AG10)</f>
+      <c r="B1" s="23" t="str" cm="1">
+        <f t="array" ref="B1:B32">TRANSPOSE('Raw Data'!B10:AG10)</f>
         <v>CO2 emissions (metric tons per capita)</v>
       </c>
-      <c r="C2" s="25" t="str" cm="1">
-        <f t="array" ref="C2:C33">TRANSPOSE('Raw Data'!B12:AG12)</f>
+      <c r="C1" s="23" t="str" cm="1">
+        <f t="array" ref="C1:C32">TRANSPOSE('Raw Data'!B12:AG12)</f>
         <v>GDP per capita (current US$)</v>
       </c>
-      <c r="D2" s="25" t="str" cm="1">
-        <f t="array" ref="D2:D33">TRANSPOSE('Raw Data'!B13:AG13)</f>
+      <c r="D1" s="23" t="str" cm="1">
+        <f t="array" ref="D1:D32">TRANSPOSE('Raw Data'!B13:AG13)</f>
         <v>Energy use (kg of oil equivalent per capita)</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
-        <f t="array" ref="E2:E33">TRANSPOSE('Raw Data'!B14:AG14)</f>
+      <c r="E1" s="23" t="str" cm="1">
+        <f t="array" ref="E1:E32">TRANSPOSE('Raw Data'!B14:AG14)</f>
         <v>School enrollment, primary (% gross)</v>
       </c>
-      <c r="F2" s="25" t="str" cm="1">
-        <f t="array" ref="F2:F33">TRANSPOSE('Raw Data'!B15:AG15)</f>
+      <c r="F1" s="23" t="str" cm="1">
+        <f t="array" ref="F1:F32">TRANSPOSE('Raw Data'!B15:AG15)</f>
         <v>School enrollment, secondary (% gross)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" cm="1">
-        <f t="array" ref="A3:A33">TRANSPOSE('Raw Data'!C1:AG1)</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A32">TRANSPOSE('Raw Data'!C1:AG1)</f>
         <v>1990</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B2">
         <v>17.390733268932941</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C2">
         <v>11002.065615430409</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D2">
         <v>5438.5284709045945</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E2">
         <v>73.980987548828097</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F2">
         <v>65.8466796875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B3">
         <v>5.8405300485255696</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C3">
         <v>8219.4801815209939</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D3">
         <v>2009.4079880552442</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E3">
         <v>107.348907470703</v>
       </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B4">
         <v>14.220246039664747</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C4">
         <v>12253.579443787659</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D4">
         <v>5444.2727008520742</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E4">
         <v>70.791389465332003</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F4">
         <v>51.502628326416001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B5">
         <v>18.590809998518424</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C5">
         <v>14477.951066116655</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D5">
         <v>7437.8600001814175</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E5">
         <v>75.731246948242202</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F5">
         <v>51.331871032714801</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B6">
         <v>22.345662010863407</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C6">
         <v>15141.303388314855</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D6">
         <v>8792.1413973259496</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E6">
         <v>86.303627014160199</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F6">
         <v>66.313941955566406</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B7">
         <v>21.899600174478103</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C7">
         <v>16424.97540906585</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D7">
         <v>8936.5511091563549</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E7">
         <v>86.288642883300795</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F7">
         <v>88.783859252929702</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B8">
         <v>20.917174596875039</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C8">
         <v>18488.839611130497</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D8">
         <v>8540.5015387614058</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E8">
         <v>90.632072448730497</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F8">
         <v>91.426170349121094</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B9">
         <v>21.179209613799397</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C9">
         <v>17230.055104285828</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9">
         <v>8342.3127754804518</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E9">
         <v>92.061271667480497</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F9">
         <v>87.190910339355497</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B10">
         <v>23.156131426335389</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C10">
         <v>14258.355821183532</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10">
         <v>9226.970054035517</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E10">
         <v>93.404922485351605</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F10">
         <v>85.627777099609403</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B11">
         <v>24.363983260068167</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C11">
         <v>16044.493793501344</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11">
         <v>9597.3595777625433</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E11">
         <v>94.382621765136705</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F11">
         <v>86.350311279296903</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B12">
         <v>25.757493535844986</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C12">
         <v>19493.888049091453</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12">
         <v>9673.3248884568256</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E12">
         <v>97.178550720214801</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F12">
         <v>86.885551452636705</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B13">
         <v>26.705525100995441</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C13">
         <v>17517.706145600434</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13">
         <v>10029.643907587286</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E13">
         <v>99.106483459472699</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F13">
         <v>88.376350402832003</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B14">
         <v>27.153745010657605</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C14">
         <v>18626.774923182977</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14">
         <v>10033.676962181617</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E14">
         <v>103.88542938232401</v>
       </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15">
         <v>27.656832766596906</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C15">
         <v>22781.082819458043</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15">
         <v>10421.287876408633</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E15">
         <v>106.22573852539099</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F15">
         <v>97.504920959472699</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B16">
         <v>28.752424562835706</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16">
         <v>27601.400059072166</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16">
         <v>10851.49207260245</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E16">
         <v>107.46775817871099</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F16">
         <v>101.7216796875</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B17">
         <v>31.274316085287531</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C17">
         <v>36144.994945871644</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17">
         <v>11757.025466996331</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E17">
         <v>110.18361663818401</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F17">
         <v>108.83136749267599</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B18">
         <v>30.649794428302506</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C18">
         <v>42970.696448825845</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18">
         <v>10858.526391327105</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18">
         <v>107.860626220703</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F18">
         <v>101.00531005859401</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B19">
         <v>28.163544387217168</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C19">
         <v>45729.799339983954</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D19">
         <v>10477.533031563738</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E19">
         <v>109.486450195312</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F19">
         <v>101.295112609863</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B20">
         <v>28.611506150671655</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C20">
         <v>55595.484312959168</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D20">
         <v>10831.523276736843</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E20">
         <v>105.853157043457</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F20">
         <v>99.542282104492202</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B21">
         <v>27.777789701489866</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C21">
         <v>37906.205185174833</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D21">
         <v>11235.785087013288</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E21">
         <v>104.78343200683599</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F21">
         <v>99.441009521484403</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B22">
         <v>27.426379955397856</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C22">
         <v>39212.579413771149</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22">
         <v>10898.253558183244</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E22">
         <v>103.45606994628901</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F22">
         <v>99.443077087402301</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B23">
         <v>26.493554825729806</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23">
         <v>49010.310500129912</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D23">
         <v>10299.968986823376</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E23">
         <v>104.04721832275401</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F23">
         <v>98.129226684570298</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B24">
         <v>25.132421097469766</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C24">
         <v>51271.06775693391</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D24">
         <v>10956.105804906112</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E24">
         <v>100.40155029296901</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F24">
         <v>95.397842407226605</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B25">
         <v>23.958143083346911</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C25">
         <v>47762.79670320922</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25">
         <v>9580.1265755441218</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E25">
         <v>97.416679382324205</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F25">
         <v>92.572738647460895</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B26">
         <v>22.749990429563717</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C26">
         <v>43239.835177917113</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26">
         <v>9006.5049723733409</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26">
         <v>95.987731933593807</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F26">
         <v>90.034919738769503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="str">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
         <v>2015</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="str">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <v>2016</v>
       </c>
-      <c r="B29" s="26">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="str">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <v>2017</v>
       </c>
-      <c r="B30" s="26">
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="str">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <v>2018</v>
       </c>
-      <c r="B31" s="26">
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <v>2019</v>
       </c>
-      <c r="B32" s="26">
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <v>2020</v>
       </c>
-      <c r="B33" s="26">
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58D3D59-F033-4110-A8A9-98B78A2E6F6B}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.44140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="25" t="str" cm="1">
-        <f t="array" ref="B2:B33">TRANSPOSE('Raw Data'!B16:AG16)</f>
+      <c r="B1" s="23" t="str" cm="1">
+        <f t="array" ref="B1:B32">TRANSPOSE('Raw Data'!B16:AG16)</f>
         <v>CO2 emissions (metric tons per capita)</v>
       </c>
-      <c r="C2" s="25" t="str" cm="1">
-        <f t="array" ref="C2:C33">TRANSPOSE('Raw Data'!B18:AG18)</f>
+      <c r="C1" s="23" t="str" cm="1">
+        <f t="array" ref="C1:C32">TRANSPOSE('Raw Data'!B18:AG18)</f>
         <v>GDP per capita (current US$)</v>
       </c>
-      <c r="D2" s="25" t="str" cm="1">
-        <f t="array" ref="D2:D33">TRANSPOSE('Raw Data'!B19:AG19)</f>
+      <c r="D1" s="23" t="str" cm="1">
+        <f t="array" ref="D1:D32">TRANSPOSE('Raw Data'!B19:AG19)</f>
         <v>Energy use (kg of oil equivalent per capita)</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
-        <f t="array" ref="E2:E33">TRANSPOSE('Raw Data'!B20:AG20)</f>
+      <c r="E1" s="23" t="str" cm="1">
+        <f t="array" ref="E1:E32">TRANSPOSE('Raw Data'!B20:AG20)</f>
         <v>School enrollment, primary (% gross)</v>
       </c>
-      <c r="F2" s="25" t="str" cm="1">
-        <f t="array" ref="F2:F33">TRANSPOSE('Raw Data'!B21:AG21)</f>
+      <c r="F1" s="23" t="str" cm="1">
+        <f t="array" ref="F1:F32">TRANSPOSE('Raw Data'!B21:AG21)</f>
         <v>School enrollment, secondary (% gross)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" cm="1">
-        <f t="array" ref="A3:A33">TRANSPOSE('Raw Data'!C1:AG1)</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A32">TRANSPOSE('Raw Data'!C1:AG1)</f>
         <v>1990</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B2">
         <v>6.6052321831131087</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C2">
         <v>6475.4170704596318</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D2">
         <v>2338.1501160416815</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E2">
         <v>82.452957153320298</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F2">
         <v>38.523120880127003</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B3">
         <v>8.2951708723202522</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C3">
         <v>5984.3606170438161</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D3">
         <v>3081.4157125391848</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E3">
         <v>83.958740234375</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F3">
         <v>43.585189819335902</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B4">
         <v>7.516621524893627</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C4">
         <v>6272.4694368476812</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D4">
         <v>2749.048849325543</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E4">
         <v>85.711196899414105</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F4">
         <v>48.524261474609403</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B5">
         <v>7.3246461647170573</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C5">
         <v>6029.8763880612632</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D5">
         <v>2863.718634584829</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E5">
         <v>87.308921813964801</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F5">
         <v>54.226921081542997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B6">
         <v>7.5905187059884947</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C6">
         <v>6054.7438840015502</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D6">
         <v>2830.5205806882491</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E6">
         <v>87.587013244628906</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F6">
         <v>59.780189514160199</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B7">
         <v>8.6853422882054918</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C7">
         <v>6352.8230585353285</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D7">
         <v>2807.8987532402498</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E7">
         <v>87.346061706542997</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F7">
         <v>62.477458953857401</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B8">
         <v>8.7707096695955311</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C8">
         <v>6913.1464620588713</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D8">
         <v>2837.7485001977416</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E8">
         <v>87.648689270019503</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F8">
         <v>64.619697570800795</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B9">
         <v>8.9170408819427252</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C9">
         <v>7052.6967704541576</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9">
         <v>3003.6484876121535</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E9">
         <v>88.263496398925795</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F9">
         <v>65.410850524902301</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B10">
         <v>8.5620778277399001</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C10">
         <v>6139.732825205966</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10">
         <v>2979.7212560977696</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E10">
         <v>88.296463012695298</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F10">
         <v>67.538177490234403</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B11">
         <v>9.5040646890945251</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C11">
         <v>6742.8246029806523</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11">
         <v>3044.3742973276831</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E11">
         <v>88.839752197265597</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F11">
         <v>69.840583801269503</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B12">
         <v>10.713434087532361</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C12">
         <v>8321.3938665155711</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12">
         <v>3228.7155012705543</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E12">
         <v>92.622467041015597</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F12">
         <v>77.554466247558594</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B13">
         <v>11.804798427391285</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C13">
         <v>8191.5128316246828</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13">
         <v>3233.1860697120796</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E13">
         <v>93.130058288574205</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F13">
         <v>80.000251770019503</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B14">
         <v>12.469364414835882</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C14">
         <v>8380.0389517872736</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14">
         <v>3358.6365620081715</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E14">
         <v>92.991149902343807</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F14">
         <v>82.368637084960895</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15">
         <v>13.03688929100181</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C15">
         <v>8896.9025302096306</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15">
         <v>3537.3046553709491</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E15">
         <v>96.498199462890597</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F15">
         <v>83.630607604980497</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B16">
         <v>12.660484313578563</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16">
         <v>10030.444426206544</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16">
         <v>3567.4513084000478</v>
       </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B17">
         <v>12.330708749073629</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C17">
         <v>12357.701391187333</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17">
         <v>3938.2281750260017</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E17">
         <v>96.953971862792997</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F17">
         <v>87.419120788574205</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B18">
         <v>15.303581240537065</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C18">
         <v>14533.72942324941</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18">
         <v>6025.9828660624707</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18">
         <v>95.923011779785199</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F18">
         <v>89.800033569335895</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B19">
         <v>16.21917335073109</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C19">
         <v>16151.275839059044</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D19">
         <v>6791.8847142802324</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E19">
         <v>93.547142028808594</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F19">
         <v>92.088447570800795</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B20">
         <v>15.58429409270668</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C20">
         <v>22974.277350431879</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D20">
         <v>5904.6754692896484</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E20">
         <v>91.815963745117202</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F20">
         <v>93.2216796875</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B21">
         <v>16.161075825836679</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C21">
         <v>17937.979567685899</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D21">
         <v>5863.3939034015102</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E21">
         <v>100.96978759765599</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F21">
         <v>98.985130310058594</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B22">
         <v>16.335081477101678</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C22">
         <v>22552.19900712333</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22">
         <v>6495.1400354070256</v>
       </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B23">
         <v>16.720415857206557</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23">
         <v>24166.096305362436</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D23">
         <v>6864.5997499119085</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E23">
         <v>111.14031219482401</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F23">
         <v>114.451622009277</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B24">
         <v>17.125738103999375</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C24">
         <v>24722.638824587379</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D24">
         <v>6695.7443179745096</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E24">
         <v>103.37030029296901</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F24">
         <v>110.750350952148</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B25">
         <v>16.510527474139828</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C25">
         <v>23563.940599222849</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25">
         <v>6402.0038357944604</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E25">
         <v>105.94441986084</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F25">
         <v>109.40386962890599</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B26">
         <v>16.558313527136008</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C26">
         <v>23121.206376855938</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26">
         <v>6067.7183634814046</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26">
         <v>105.67872619628901</v>
       </c>
-      <c r="F27" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="str">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
         <v>2015</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="str">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <v>2016</v>
       </c>
-      <c r="B29" s="26">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="str">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <v>2017</v>
       </c>
-      <c r="B30" s="26">
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="str">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <v>2018</v>
       </c>
-      <c r="B31" s="26">
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <v>2019</v>
       </c>
-      <c r="B32" s="26">
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <v>2020</v>
       </c>
-      <c r="B33" s="26">
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD000729-DAAF-47F3-9020-9F08613CA61A}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.44140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="25" t="str" cm="1">
-        <f t="array" ref="B2:B33">TRANSPOSE('Raw Data'!B22:AG22)</f>
+      <c r="B1" s="23" t="str" cm="1">
+        <f t="array" ref="B1:B32">TRANSPOSE('Raw Data'!B22:AG22)</f>
         <v>CO2 emissions (metric tons per capita)</v>
       </c>
-      <c r="C2" s="25" t="str" cm="1">
-        <f t="array" ref="C2:C33">TRANSPOSE('Raw Data'!B24:AG24)</f>
+      <c r="C1" s="23" t="str" cm="1">
+        <f t="array" ref="C1:C32">TRANSPOSE('Raw Data'!B24:AG24)</f>
         <v>GDP per capita (current US$)</v>
       </c>
-      <c r="D2" s="25" t="str" cm="1">
-        <f t="array" ref="D2:D33">TRANSPOSE('Raw Data'!B25:AG25)</f>
+      <c r="D1" s="23" t="str" cm="1">
+        <f t="array" ref="D1:D32">TRANSPOSE('Raw Data'!B25:AG25)</f>
         <v>Energy use (kg of oil equivalent per capita)</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
-        <f t="array" ref="E2:E33">TRANSPOSE('Raw Data'!B26:AG26)</f>
+      <c r="E1" s="23" t="str" cm="1">
+        <f t="array" ref="E1:E32">TRANSPOSE('Raw Data'!B26:AG26)</f>
         <v>School enrollment, primary (% gross)</v>
       </c>
-      <c r="F2" s="25" t="str" cm="1">
-        <f t="array" ref="F2:F33">TRANSPOSE('Raw Data'!B27:AG27)</f>
+      <c r="F1" s="23" t="str" cm="1">
+        <f t="array" ref="F1:F32">TRANSPOSE('Raw Data'!B27:AG27)</f>
         <v>School enrollment, secondary (% gross)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" cm="1">
-        <f t="array" ref="A3:A33">TRANSPOSE('Raw Data'!C1:AG1)</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A32">TRANSPOSE('Raw Data'!C1:AG1)</f>
         <v>1990</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B2">
         <v>20.752003215968518</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C2">
         <v>8174.7972317208778</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D2">
         <v>10116.938336122825</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E2">
         <v>100.56568145752</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F2">
         <v>81.751319885253906</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B3">
         <v>19.324318519279441</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C3">
         <v>8621.7670484676746</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D3">
         <v>9624.0953279231999</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E3">
         <v>98.318466186523395</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F3">
         <v>94.306121826171903</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B4">
         <v>22.133298465201001</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C4">
         <v>8568.6580514495545</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D4">
         <v>10224.311504680145</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E4">
         <v>92.151878356933594</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F4">
         <v>87.860443115234403</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B5">
         <v>22.773169732725641</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C5">
         <v>9063.5653849584032</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D5">
         <v>10413.293130343091</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E5">
         <v>90.775901794433594</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F5">
         <v>85.618118286132798</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B6">
         <v>22.540143007885327</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C6">
         <v>9384.7718809258895</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D6">
         <v>10704.999882006696</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E6">
         <v>90.339897155761705</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F6">
         <v>84.033180236816406</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B7">
         <v>22.083748005494879</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C7">
         <v>9543.389368429449</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D7">
         <v>10492.110080367544</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E7">
         <v>91.747322082519503</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F7">
         <v>81.912757873535199</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B8">
         <v>22.37036077097649</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C8">
         <v>9643.3086942995615</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D8">
         <v>10160.015867095688</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E8">
         <v>91.633399963378906</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F8">
         <v>80.010627746582003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B9">
         <v>22.088308615889545</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C9">
         <v>9728.4463230541369</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9">
         <v>11104.040034138114</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E9">
         <v>91.704841613769503</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F9">
         <v>77.656608581542997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B10">
         <v>23.032399283849134</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C10">
         <v>9195.4256097463731</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10">
         <v>11322.236662879712</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E10">
         <v>92.405021667480497</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F10">
         <v>78.2818603515625</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B11">
         <v>22.323570758799246</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C11">
         <v>9566.0954936990802</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11">
         <v>10899.682575458763</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E11">
         <v>93.846626281738295</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F11">
         <v>78.063583374023395</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B12">
         <v>22.315944237197129</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C12">
         <v>12738.774118157506</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12">
         <v>11199.608682085118</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E12">
         <v>93.940750122070298</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F12">
         <v>81.460632324218807</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B13">
         <v>22.439113900996499</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C13">
         <v>12291.832613053541</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13">
         <v>11212.397827066361</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E13">
         <v>94.261703491210895</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F13">
         <v>83.459869384765597</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B14">
         <v>23.013400612568887</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C14">
         <v>12819.995935313946</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14">
         <v>11345.210096161556</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E14">
         <v>94.6728515625</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F14">
         <v>86.371246337890597</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15">
         <v>23.056821919779612</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C15">
         <v>14230.296752980039</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15">
         <v>11573.262525441498</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E15">
         <v>94.473739624023395</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F15">
         <v>88.951286315917997</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B16">
         <v>21.509722827136809</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16">
         <v>15777.963640895607</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16">
         <v>10847.863881619915</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E16">
         <v>94.703086853027301</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F16">
         <v>86.305267333984403</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B17">
         <v>22.944027248506245</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C17">
         <v>17705.235163894973</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17">
         <v>11510.318531223909</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E17">
         <v>94.840087890625</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F17">
         <v>83.229751586914105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B18">
         <v>23.15740472779591</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C18">
         <v>19057.79890471376</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18">
         <v>11454.060378112445</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18">
         <v>101.59088134765599</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F18">
         <v>83.678749084472699</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B19">
         <v>22.105038576420522</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C19">
         <v>20883.548031199425</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D19">
         <v>11184.114472212292</v>
       </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B20">
         <v>22.301396955715486</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C20">
         <v>23155.821449155035</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D20">
         <v>11362.069198436879</v>
       </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>88.528388977050795</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B21">
         <v>20.956409454213098</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C21">
         <v>19448.183255378877</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D21">
         <v>10388.482627116129</v>
       </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>89.859809875488295</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B22">
         <v>21.394806553811041</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C22">
         <v>21186.814329227858</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22">
         <v>10436.771049194782</v>
       </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>90.04248046875</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B23">
         <v>21.465302946924989</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23">
         <v>23741.557462670153</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D23">
         <v>10453.083426217971</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E23">
         <v>96.224967956542997</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F23">
         <v>92.420677185058594</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B24">
         <v>22.18412508704515</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C24">
         <v>25102.726348526987</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D24">
         <v>10251.069645100695</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E24">
         <v>99.523857116699205</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F24">
         <v>95.423973083496094</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B25">
         <v>22.868841609513719</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C25">
         <v>25790.730312138236</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25">
         <v>10860.468600025522</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E25">
         <v>105.874481201172</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F25">
         <v>105.04254913330099</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B26">
         <v>23.096571364940576</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C26">
         <v>25464.760097714992</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26">
         <v>10798.122846329972</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26">
         <v>105.241493225098</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F26">
         <v>104.19476318359401</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="str">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
         <v>2015</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="str">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <v>2016</v>
       </c>
-      <c r="B29" s="26">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="str">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <v>2017</v>
       </c>
-      <c r="B30" s="26">
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="str">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <v>2018</v>
       </c>
-      <c r="B31" s="26">
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <v>2019</v>
       </c>
-      <c r="B32" s="26">
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <v>2020</v>
       </c>
-      <c r="B33" s="26">
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4D4A94-2EF6-4012-9219-A1ADD5EB8A47}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.44140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="25" t="str" cm="1">
-        <f t="array" ref="B2:B33">TRANSPOSE('Raw Data'!B28:AG28)</f>
+      <c r="B1" s="23" t="str" cm="1">
+        <f t="array" ref="B1:B32">TRANSPOSE('Raw Data'!B28:AG28)</f>
         <v>CO2 emissions (metric tons per capita)</v>
       </c>
-      <c r="C2" s="25" t="str" cm="1">
-        <f t="array" ref="C2:C33">TRANSPOSE('Raw Data'!B31:AG31)</f>
+      <c r="C1" s="23" t="str" cm="1">
+        <f t="array" ref="C1:C32">TRANSPOSE('Raw Data'!B31:AG31)</f>
         <v>GDP per capita (current US$)</v>
       </c>
-      <c r="D2" s="25" t="str" cm="1">
-        <f t="array" ref="D2:D33">TRANSPOSE('Raw Data'!B32:AG32)</f>
+      <c r="D1" s="23" t="str" cm="1">
+        <f t="array" ref="D1:D32">TRANSPOSE('Raw Data'!B32:AG32)</f>
         <v>Energy use (kg of oil equivalent per capita)</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
-        <f t="array" ref="E2:E33">TRANSPOSE('Raw Data'!B33:AG33)</f>
+      <c r="E1" s="23" t="str" cm="1">
+        <f t="array" ref="E1:E32">TRANSPOSE('Raw Data'!B33:AG33)</f>
         <v>School enrollment, primary (% gross)</v>
       </c>
-      <c r="F2" s="25" t="str" cm="1">
-        <f t="array" ref="F2:F33">TRANSPOSE('Raw Data'!B34:AG34)</f>
+      <c r="F1" s="23" t="str" cm="1">
+        <f t="array" ref="F1:F32">TRANSPOSE('Raw Data'!B34:AG34)</f>
         <v>School enrollment, secondary (% gross)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" cm="1">
-        <f t="array" ref="A3:A33">TRANSPOSE('Raw Data'!C1:AG1)</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A32">TRANSPOSE('Raw Data'!C1:AG1)</f>
         <v>1990</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B2">
         <v>28.399615101601857</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C2">
         <v>16664.83143278864</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D2">
         <v>14776.657044206711</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E2">
         <v>112.05966949462901</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F2">
         <v>74.361633300781193</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B3">
         <v>32.826855588123188</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C3">
         <v>15079.359462319728</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D3">
         <v>15820.49394724044</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E3">
         <v>107.283828735352</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F3">
         <v>75.954780578613295</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B4">
         <v>31.14325907662537</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C4">
         <v>16223.780076335705</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D4">
         <v>16022.739569652</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E4">
         <v>105.00203704834</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F4">
         <v>77.633087158203097</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B5">
         <v>34.183535956843144</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C5">
         <v>14724.25917534972</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D5">
         <v>16120.991850481749</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E5">
         <v>101.52938842773401</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F5">
         <v>86.7474365234375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B6">
         <v>36.931551500650109</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C6">
         <v>14728.782022219188</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D6">
         <v>15708.122704385809</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E6">
         <v>103.372482299805</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F6">
         <v>89.439826965332003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B7">
         <v>36.976276029685543</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C7">
         <v>15797.69103905589</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D7">
         <v>15819.141852686589</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E7">
         <v>99.711181640625</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F7">
         <v>91.936187744140597</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B8">
         <v>39.568269203518078</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C8">
         <v>17116.83255952195</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D8">
         <v>16337.335739185475</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E8">
         <v>99.032409667968807</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F8">
         <v>92.707176208496094</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B9">
         <v>46.118806882059459</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C9">
         <v>20519.409353557567</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9">
         <v>18479.284986496328</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E9">
         <v>99.652519226074205</v>
       </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B10">
         <v>45.615898188803044</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C10">
         <v>17651.54558022249</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10">
         <v>18368.427031464878</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E10">
         <v>104.943069458008</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F10">
         <v>89.375137329101605</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B11">
         <v>47.288937587028904</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C11">
         <v>20207.225588913567</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11">
         <v>18454.00471545829</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E11">
         <v>104.47435760498</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F11">
         <v>87.119369506835895</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B12">
         <v>44.379250608031434</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C12">
         <v>27494.771332018619</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12">
         <v>16906.15029019858</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E12">
         <v>101.85133361816401</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F12">
         <v>90.030952453613295</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B13">
         <v>42.205792015980407</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C13">
         <v>25836.270792673782</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13">
         <v>17777.159558122716</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E13">
         <v>94.3836669921875</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F13">
         <v>87.841346740722699</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B14">
         <v>45.564691398877713</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C14">
         <v>27151.032498866021</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14">
         <v>19140.337864175683</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E14">
         <v>95.147491455078097</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F14">
         <v>87.484390258789105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15">
         <v>46.416886543535618</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C15">
         <v>31440.220712456106</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15">
         <v>18879.894459102903</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E15">
         <v>96.906478881835895</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F15">
         <v>88.701980590820298</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B16">
         <v>47.656962013926474</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16">
         <v>40792.276470211742</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16">
         <v>21420.628503630727</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E16">
         <v>93.367912292480497</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F16">
         <v>90.055252075195298</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B17">
         <v>45.406086884801638</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C17">
         <v>52468.445647505636</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17">
         <v>19635.424349895722</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E17">
         <v>96.101882934570298</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F17">
         <v>90.054481506347699</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B18">
         <v>43.288574074438948</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C18">
         <v>59978.861207360009</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18">
         <v>19300.107382814807</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18">
         <v>94.612220764160199</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F18">
         <v>91.352249145507798</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B19">
         <v>40.609452281975784</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C19">
         <v>64706.989902603484</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D19">
         <v>17969.106894835833</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E19">
         <v>98.263961791992202</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F19">
         <v>91.991569519042997</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B20">
         <v>36.889945626773816</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C20">
         <v>79811.597737175733</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D20">
         <v>15748.64655464291</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E20">
         <v>98.570457458496094</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F20">
         <v>97.628860473632798</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B21">
         <v>33.727303552066296</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C21">
         <v>60733.981700227188</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D21">
         <v>15049.497166320762</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E21">
         <v>103.21176147460901</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F21">
         <v>97.201499938964801</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B22">
         <v>35.548268343698055</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C22">
         <v>73021.309752503541</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22">
         <v>16131.581251050478</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E22">
         <v>103.01296234130901</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F22">
         <v>98.150177001953097</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B23">
         <v>37.979493074658663</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23">
         <v>92992.997130745163</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D23">
         <v>17344.592613449611</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E23">
         <v>99.263252258300795</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F23">
         <v>96.467689514160199</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B24">
         <v>39.582139521215744</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C24">
         <v>98041.36223808935</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D24">
         <v>19987.584353977101</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E24">
         <v>102.537559509277</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F24">
         <v>98.613983154296903</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B25">
         <v>37.602880077189845</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C25">
         <v>97630.825515208766</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25">
         <v>19819.982893646331</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E25">
         <v>100.88224029541</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F25">
         <v>97.366378784179702</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B26">
         <v>37.105034398827712</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C26">
         <v>93126.149463382157</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26">
         <v>19903.475105725312</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26">
         <v>98.598098754882798</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F26">
         <v>99.387718200683594</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="str">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
         <v>2015</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="str">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <v>2016</v>
       </c>
-      <c r="B29" s="26">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="str">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <v>2017</v>
       </c>
-      <c r="B30" s="26">
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="str">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <v>2018</v>
       </c>
-      <c r="B31" s="26">
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <v>2019</v>
       </c>
-      <c r="B32" s="26">
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <v>2020</v>
       </c>
-      <c r="B33" s="26">
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0434D639-41ED-424C-8011-1DB35B0DE86D}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="16.44140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:6" s="23" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="25" t="str" cm="1">
-        <f t="array" ref="B2:B33">TRANSPOSE('Raw Data'!B35:AG35)</f>
+      <c r="B1" s="23" t="str" cm="1">
+        <f t="array" ref="B1:B32">TRANSPOSE('Raw Data'!B35:AG35)</f>
         <v>CO2 emissions (metric tons per capita)</v>
       </c>
-      <c r="C2" s="25" t="str" cm="1">
-        <f t="array" ref="C2:C33">TRANSPOSE('Raw Data'!B37:AG37)</f>
+      <c r="C1" s="23" t="str" cm="1">
+        <f t="array" ref="C1:C32">TRANSPOSE('Raw Data'!B37:AG37)</f>
         <v>GDP per capita (current US$)</v>
       </c>
-      <c r="D2" s="25" t="str" cm="1">
-        <f t="array" ref="D2:D33">TRANSPOSE('Raw Data'!B38:AG38)</f>
+      <c r="D1" s="23" t="str" cm="1">
+        <f t="array" ref="D1:D32">TRANSPOSE('Raw Data'!B38:AG38)</f>
         <v>Energy use (kg of oil equivalent per capita)</v>
       </c>
-      <c r="E2" s="25" t="str" cm="1">
-        <f t="array" ref="E2:E33">TRANSPOSE('Raw Data'!B39:AG39)</f>
+      <c r="E1" s="23" t="str" cm="1">
+        <f t="array" ref="E1:E32">TRANSPOSE('Raw Data'!B39:AG39)</f>
         <v>School enrollment, primary (% gross)</v>
       </c>
-      <c r="F2" s="25" t="str" cm="1">
-        <f t="array" ref="F2:F33">TRANSPOSE('Raw Data'!B40:AG40)</f>
+      <c r="F1" s="23" t="str" cm="1">
+        <f t="array" ref="F1:F32">TRANSPOSE('Raw Data'!B40:AG40)</f>
         <v>School enrollment, secondary (% gross)</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" cm="1">
-        <f t="array" ref="A3:A33">TRANSPOSE('Raw Data'!C1:AG1)</f>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A32">TRANSPOSE('Raw Data'!C1:AG1)</f>
         <v>1990</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B2">
         <v>29.055796091994797</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C2">
         <v>26682.849809461179</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D2">
         <v>10748.654712178137</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E2">
         <v>102.32389831543</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F2">
         <v>54.373138427734403</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1991</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B3">
         <v>30.653565579871966</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C3">
         <v>25668.493321466176</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D3">
         <v>11694.921735545462</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E3">
         <v>104.00665283203099</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F3">
         <v>58.679130554199197</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1992</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B4">
         <v>28.211853998925449</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C4">
         <v>25630.080973092732</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D4">
         <v>10564.50973452331</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E4">
         <v>100.77953338623</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F4">
         <v>62.544921875</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1993</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B5">
         <v>28.615417553492939</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C5">
         <v>25019.372357889035</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D5">
         <v>10576.05236218135</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E5">
         <v>99.242172241210895</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F5">
         <v>67.453292846679702</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1994</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B6">
         <v>30.390240718859062</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C6">
         <v>25463.496288506263</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D6">
         <v>11186.538223736638</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E6">
         <v>100.86293792724599</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F6">
         <v>73.820541381835895</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1995</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B7">
         <v>30.882116099175509</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C7">
         <v>27010.67818570383</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D7">
         <v>11374.222469461642</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E7">
         <v>102.68814086914099</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F7">
         <v>78.707122802734403</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1996</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B8">
         <v>30.523275813482542</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C8">
         <v>28596.506828797497</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D8">
         <v>11361.397889794323</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E8">
         <v>100.12816619873</v>
       </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1997</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B9">
         <v>29.656726456500973</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C9">
         <v>28709.246920678062</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D9">
         <v>11243.895475760521</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E9">
         <v>97.300056457519503</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F9">
         <v>67.756690979003906</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>1998</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B10">
         <v>28.567574876845605</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C10">
         <v>25905.843383617244</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D10">
         <v>10809.310438083892</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E10">
         <v>98.294227600097699</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F10">
         <v>62.628700256347699</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>1999</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B11">
         <v>27.660389796753126</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C11">
         <v>27261.90657331581</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D11">
         <v>10408.865291843942</v>
       </c>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B12">
         <v>25.86885058710061</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C12">
         <v>31855.500604717483</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D12">
         <v>9624.1182194299017</v>
       </c>
-      <c r="E13" s="26">
-        <v>0</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2001</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B13">
         <v>28.138659104081469</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C13">
         <v>29909.009434843505</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D13">
         <v>11638.61944219758</v>
       </c>
-      <c r="E14" s="26">
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2002</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B14">
         <v>27.285556829143108</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C14">
         <v>30221.966999513555</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D14">
         <v>10973.908364993373</v>
       </c>
-      <c r="E15" s="26">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15">
         <v>27.224872641337502</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C15">
         <v>32607.372934828723</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D15">
         <v>10287.493218070913</v>
       </c>
-      <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2004</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B16">
         <v>27.547773930537829</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C16">
         <v>37017.736365468983</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D16">
         <v>10480.615344702766</v>
       </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2005</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B17">
         <v>27.202543895773712</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C17">
         <v>42190.554379463312</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D17">
         <v>10394.300341065729</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E17">
         <v>96.85</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F17">
         <v>78.69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2006</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B18">
         <v>24.813970492476557</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C18">
         <v>45339.585116580893</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D18">
         <v>9430.1461087407624</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E18">
         <v>71.22</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F18">
         <v>66.45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B19">
         <v>22.448500023158303</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C19">
         <v>43918.380169426484</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D19">
         <v>8537.9169516045986</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E19">
         <v>101.538</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F19">
         <v>63.83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>2008</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B20">
         <v>22.32814900084923</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C20">
         <v>45140.769077243822</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D20">
         <v>8487.835980588623</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E20">
         <v>87.97</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F20">
         <v>90.04</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>2009</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B21">
         <v>19.645539073177787</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C21">
         <v>31722.58876379922</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D21">
         <v>7501.0405818149784</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E21">
         <v>95.355999999999995</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F21">
         <v>92.41</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2010</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B22">
         <v>19.192795938489734</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C22">
         <v>35392.260966964168</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D22">
         <v>7273.2493013546346</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E22">
         <v>97.88</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F22">
         <v>93.77</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="26">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>2011</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B23">
         <v>19.431780348108294</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23">
         <v>42078.61381254271</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D23">
         <v>7502.5620961831237</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E23">
         <v>98.108999999999995</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F23">
         <v>95.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="26">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>2012</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B24">
         <v>20.2756524576141</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C24">
         <v>44386.786078984551</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D24">
         <v>7892.7059058145496</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E24">
         <v>106.778038024902</v>
       </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="26">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>2013</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B25">
         <v>21.133916075086777</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C25">
         <v>45729.607675682295</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D25">
         <v>7992.4421667791948</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E25">
         <v>111.88613128662099</v>
       </c>
-      <c r="F26" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="26">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>2014</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B26">
         <v>21.12277444725531</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C26">
         <v>46865.964598367609</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D26">
         <v>7975.790608164305</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E26">
         <v>118.973251342773</v>
       </c>
-      <c r="F27" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="str">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="str">
         <v>2015</v>
       </c>
-      <c r="B28" s="26">
-        <v>0</v>
-      </c>
-      <c r="C28" s="26">
-        <v>0</v>
-      </c>
-      <c r="D28" s="26">
-        <v>0</v>
-      </c>
-      <c r="E28" s="26">
-        <v>0</v>
-      </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="str">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
         <v>2016</v>
       </c>
-      <c r="B29" s="26">
-        <v>0</v>
-      </c>
-      <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="26">
-        <v>0</v>
-      </c>
-      <c r="E29" s="26">
-        <v>0</v>
-      </c>
-      <c r="F29" s="26">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>81.509788513183594</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="str">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="str">
         <v>2017</v>
       </c>
-      <c r="B30" s="26">
-        <v>0</v>
-      </c>
-      <c r="C30" s="26">
-        <v>0</v>
-      </c>
-      <c r="D30" s="26">
-        <v>0</v>
-      </c>
-      <c r="E30" s="26">
-        <v>0</v>
-      </c>
-      <c r="F30" s="26">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>105.19735717773401</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="str">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <v>2018</v>
       </c>
-      <c r="B31" s="26">
-        <v>0</v>
-      </c>
-      <c r="C31" s="26">
-        <v>0</v>
-      </c>
-      <c r="D31" s="26">
-        <v>0</v>
-      </c>
-      <c r="E31" s="26">
-        <v>0</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="str">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <v>2019</v>
       </c>
-      <c r="B32" s="26">
-        <v>0</v>
-      </c>
-      <c r="C32" s="26">
-        <v>0</v>
-      </c>
-      <c r="D32" s="26">
-        <v>0</v>
-      </c>
-      <c r="E32" s="26">
-        <v>0</v>
-      </c>
-      <c r="F32" s="26">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>120.53073883056599</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="str">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <v>2020</v>
       </c>
-      <c r="B33" s="26">
-        <v>0</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-      <c r="F33" s="26">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>120.353652954102</v>
       </c>
     </row>
-    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="75" s="16" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10578,15 +10549,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="3" width="50.81640625" customWidth="1"/>
     <col min="4" max="4" width="104" customWidth="1"/>
-    <col min="5" max="14" width="50.77734375" customWidth="1"/>
+    <col min="5" max="14" width="50.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10630,7 +10601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -10640,10 +10611,10 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -10665,7 +10636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -10675,10 +10646,10 @@
       <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
@@ -10700,7 +10671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -10710,10 +10681,10 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F4" t="s">
@@ -10741,7 +10712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -10751,10 +10722,10 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F5" t="s">
@@ -10779,7 +10750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -10789,10 +10760,10 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F6" t="s">
@@ -10817,7 +10788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10827,10 +10798,10 @@
       <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F7" t="s">
@@ -10855,40 +10826,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10900,32 +10874,32 @@
       <selection activeCell="E2" sqref="E2:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="5" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:8" ht="67.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -10944,10 +10918,10 @@
       <c r="F2" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1970</v>
       </c>
@@ -10973,7 +10947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1971</v>
       </c>
@@ -10999,7 +10973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1972</v>
       </c>
@@ -11025,7 +10999,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1973</v>
       </c>
@@ -11051,7 +11025,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1974</v>
       </c>
@@ -11077,7 +11051,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1975</v>
       </c>
@@ -11103,7 +11077,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1976</v>
       </c>
@@ -11129,7 +11103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1977</v>
       </c>
@@ -11155,7 +11129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1978</v>
       </c>
@@ -11181,7 +11155,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1979</v>
       </c>
@@ -11207,7 +11181,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1980</v>
       </c>
@@ -11233,7 +11207,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1981</v>
       </c>
@@ -11259,7 +11233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1982</v>
       </c>
@@ -11285,7 +11259,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1983</v>
       </c>
@@ -11311,7 +11285,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1984</v>
       </c>
@@ -11337,7 +11311,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1985</v>
       </c>
@@ -11363,7 +11337,7 @@
         <v>20413</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1986</v>
       </c>
@@ -11389,7 +11363,7 @@
         <v>21205</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>1987</v>
       </c>
@@ -11415,7 +11389,7 @@
         <v>20492</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1988</v>
       </c>
@@ -11441,7 +11415,7 @@
         <v>24350</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>1989</v>
       </c>
@@ -11467,7 +11441,7 @@
         <v>26460</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1990</v>
       </c>
@@ -11493,7 +11467,7 @@
         <v>27079</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1991</v>
       </c>
@@ -11519,7 +11493,7 @@
         <v>28801</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1992</v>
       </c>
@@ -11545,7 +11519,7 @@
         <v>29878</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>1993</v>
       </c>
@@ -11571,7 +11545,7 @@
         <v>34161</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1994</v>
       </c>
@@ -11597,7 +11571,7 @@
         <v>36967</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>1995</v>
       </c>
@@ -11623,7 +11597,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1996</v>
       </c>
@@ -11649,7 +11623,7 @@
         <v>37019</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>1997</v>
       </c>
@@ -11675,7 +11649,7 @@
         <v>35369</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1998</v>
       </c>
@@ -11701,7 +11675,7 @@
         <v>37295</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>1999</v>
       </c>
@@ -11725,7 +11699,7 @@
         <v>46187</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>2000</v>
       </c>
@@ -11751,7 +11725,7 @@
         <v>50004</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>2001</v>
       </c>
@@ -11777,7 +11751,7 @@
         <v>55685</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>2002</v>
       </c>
@@ -11803,7 +11777,7 @@
         <v>66066</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>2003</v>
       </c>
@@ -11829,7 +11803,7 @@
         <v>70755</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>2004</v>
       </c>
@@ -11855,7 +11829,7 @@
         <v>75860</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>2005</v>
       </c>
@@ -11881,7 +11855,7 @@
         <v>74101</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2006</v>
       </c>
@@ -11907,7 +11881,7 @@
         <v>67399</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>2007</v>
       </c>
@@ -11933,7 +11907,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2008</v>
       </c>
@@ -11959,7 +11933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>2009</v>
       </c>
@@ -11985,7 +11959,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>2010</v>
       </c>
@@ -12011,7 +11985,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>2011</v>
       </c>
@@ -12037,7 +12011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>2012</v>
       </c>
@@ -12063,7 +12037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>2013</v>
       </c>
@@ -12089,7 +12063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>2014</v>
       </c>
@@ -12115,7 +12089,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>2015</v>
       </c>
@@ -12141,7 +12115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>2016</v>
       </c>
@@ -12167,7 +12141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>2017</v>
       </c>
@@ -12193,7 +12167,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2018</v>
       </c>
@@ -12219,7 +12193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>2019</v>
       </c>
@@ -12245,7 +12219,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2020</v>
       </c>
@@ -12271,7 +12245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>2021</v>
       </c>
@@ -12297,7 +12271,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>2022</v>
       </c>
@@ -12323,32 +12297,32 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>111</v>
       </c>
@@ -12364,5 +12338,14 @@
     <hyperlink ref="A61" r:id="rId1" xr:uid="{DE69FD42-31FD-475E-AE88-423AB5021259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 SLB-Private</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{8bb759f6-5337-4dc5-b19b-e74b6da11f8f}" enabled="1" method="Standard" siteId="{41ff26dc-250f-4b13-8981-739be8610c21}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>